--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="190">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -604,6 +604,9 @@
   <si>
     <t>TableName: "Achieve" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1172,21 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="226">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -607,6 +607,149 @@
   </si>
   <si>
     <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩常规场场数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务1-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运任务3-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckTaskPara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -674,7 +817,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +834,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1029,17 +1174,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="G124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.69921875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="4"/>
     <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="4"/>
@@ -1051,10 +1196,12 @@
     <col min="15" max="15" width="9.3984375" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.09765625" style="4" customWidth="1"/>
     <col min="17" max="17" width="22.59765625" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="4"/>
+    <col min="18" max="18" width="8.796875" style="4"/>
+    <col min="19" max="19" width="14.296875" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>169</v>
       </c>
@@ -1109,8 +1256,11 @@
       <c r="R1" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
@@ -1163,17 +1313,20 @@
         <v>183</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>189</v>
@@ -1188,7 +1341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
@@ -1196,7 +1349,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>101</v>
       </c>
@@ -1236,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>102</v>
       </c>
@@ -1276,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>103</v>
       </c>
@@ -1316,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>104</v>
       </c>
@@ -1356,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>105</v>
       </c>
@@ -1396,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>106</v>
       </c>
@@ -1436,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>121</v>
       </c>
@@ -1476,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>122</v>
       </c>
@@ -1516,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>123</v>
       </c>
@@ -1556,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>124</v>
       </c>
@@ -1596,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>125</v>
       </c>
@@ -1636,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>126</v>
       </c>
@@ -6854,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>3020</v>
       </c>
@@ -6904,100 +7057,1055 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <v>4001</v>
+      </c>
+      <c r="B130" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G130" s="8">
+        <v>1</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <v>1</v>
+      </c>
+      <c r="N130" s="8">
+        <v>5</v>
+      </c>
+      <c r="O130" s="8">
+        <v>1</v>
+      </c>
+      <c r="P130" s="8">
+        <v>500</v>
+      </c>
+      <c r="S130" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" s="8">
+        <v>4002</v>
+      </c>
+      <c r="B131" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G131" s="8">
+        <v>1</v>
+      </c>
+      <c r="H131" s="8">
+        <v>4001</v>
+      </c>
+      <c r="J131" s="8">
+        <v>2</v>
+      </c>
+      <c r="N131" s="8">
+        <v>5</v>
+      </c>
+      <c r="O131" s="8">
+        <v>1</v>
+      </c>
+      <c r="P131" s="8">
+        <v>500</v>
+      </c>
+      <c r="S131" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
+        <v>4003</v>
+      </c>
+      <c r="B132" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G132" s="8">
+        <v>1</v>
+      </c>
+      <c r="H132" s="8">
+        <v>4002</v>
+      </c>
+      <c r="J132" s="8">
+        <v>3</v>
+      </c>
+      <c r="N132" s="8">
+        <v>5</v>
+      </c>
+      <c r="O132" s="8">
+        <v>1</v>
+      </c>
+      <c r="P132" s="8">
+        <v>500</v>
+      </c>
+      <c r="S132" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" s="8">
+        <v>4004</v>
+      </c>
+      <c r="B133" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G133" s="8">
+        <v>1</v>
+      </c>
+      <c r="H133" s="8">
+        <v>4003</v>
+      </c>
+      <c r="J133" s="8">
+        <v>4</v>
+      </c>
+      <c r="N133" s="8">
+        <v>5</v>
+      </c>
+      <c r="O133" s="8">
+        <v>1</v>
+      </c>
+      <c r="P133" s="8">
+        <v>500</v>
+      </c>
+      <c r="S133" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" s="8">
+        <v>4005</v>
+      </c>
+      <c r="B134" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G134" s="8">
+        <v>1</v>
+      </c>
+      <c r="H134" s="8">
+        <v>4004</v>
+      </c>
+      <c r="J134" s="8">
+        <v>5</v>
+      </c>
+      <c r="N134" s="8">
+        <v>5</v>
+      </c>
+      <c r="O134" s="8">
+        <v>1</v>
+      </c>
+      <c r="P134" s="8">
+        <v>500</v>
+      </c>
+      <c r="S134" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" s="8">
+        <v>4006</v>
+      </c>
+      <c r="B135" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G135" s="8">
+        <v>1</v>
+      </c>
+      <c r="H135" s="8">
+        <v>4005</v>
+      </c>
+      <c r="J135" s="8">
+        <v>6</v>
+      </c>
+      <c r="N135" s="8">
+        <v>5</v>
+      </c>
+      <c r="O135" s="8">
+        <v>1</v>
+      </c>
+      <c r="P135" s="8">
+        <v>500</v>
+      </c>
+      <c r="S135" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" s="8">
+        <v>4007</v>
+      </c>
+      <c r="B136" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G136" s="8">
+        <v>1</v>
+      </c>
+      <c r="H136" s="8">
+        <v>4006</v>
+      </c>
+      <c r="J136" s="8">
+        <v>7</v>
+      </c>
+      <c r="N136" s="8">
+        <v>5</v>
+      </c>
+      <c r="O136" s="8">
+        <v>1</v>
+      </c>
+      <c r="P136" s="8">
+        <v>500</v>
+      </c>
+      <c r="S136" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" s="8">
+        <v>4008</v>
+      </c>
+      <c r="B137" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G137" s="8">
+        <v>1</v>
+      </c>
+      <c r="H137" s="8">
+        <v>4007</v>
+      </c>
+      <c r="J137" s="8">
+        <v>8</v>
+      </c>
+      <c r="N137" s="8">
+        <v>5</v>
+      </c>
+      <c r="O137" s="8">
+        <v>1</v>
+      </c>
+      <c r="P137" s="8">
+        <v>500</v>
+      </c>
+      <c r="S137" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" s="8">
+        <v>4009</v>
+      </c>
+      <c r="B138" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G138" s="8">
+        <v>1</v>
+      </c>
+      <c r="H138" s="8">
+        <v>4008</v>
+      </c>
+      <c r="J138" s="8">
+        <v>9</v>
+      </c>
+      <c r="N138" s="8">
+        <v>5</v>
+      </c>
+      <c r="O138" s="8">
+        <v>1</v>
+      </c>
+      <c r="P138" s="8">
+        <v>500</v>
+      </c>
+      <c r="S138" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" s="8">
+        <v>4010</v>
+      </c>
+      <c r="B139" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139" s="8">
+        <v>1</v>
+      </c>
+      <c r="H139" s="8">
+        <v>4009</v>
+      </c>
+      <c r="J139" s="8">
+        <v>10</v>
+      </c>
+      <c r="N139" s="8">
+        <v>5</v>
+      </c>
+      <c r="O139" s="8">
+        <v>1</v>
+      </c>
+      <c r="P139" s="8">
+        <v>500</v>
+      </c>
+      <c r="S139" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" s="8">
+        <v>4101</v>
+      </c>
+      <c r="B140" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G140" s="8">
+        <v>1</v>
+      </c>
+      <c r="H140" s="8">
+        <v>0</v>
+      </c>
+      <c r="J140" s="8">
+        <v>5</v>
+      </c>
+      <c r="N140" s="8">
+        <v>5</v>
+      </c>
+      <c r="O140" s="8">
+        <v>1</v>
+      </c>
+      <c r="P140" s="8">
+        <v>500</v>
+      </c>
+      <c r="S140" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" s="8">
+        <v>4102</v>
+      </c>
+      <c r="B141" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G141" s="8">
+        <v>1</v>
+      </c>
+      <c r="H141" s="8">
+        <v>4101</v>
+      </c>
+      <c r="J141" s="8">
+        <v>10</v>
+      </c>
+      <c r="N141" s="8">
+        <v>5</v>
+      </c>
+      <c r="O141" s="8">
+        <v>1</v>
+      </c>
+      <c r="P141" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S141" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" s="8">
+        <v>4103</v>
+      </c>
+      <c r="B142" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142" s="8">
+        <v>1</v>
+      </c>
+      <c r="H142" s="8">
+        <v>4102</v>
+      </c>
+      <c r="J142" s="8">
+        <v>15</v>
+      </c>
+      <c r="N142" s="8">
+        <v>5</v>
+      </c>
+      <c r="O142" s="8">
+        <v>1</v>
+      </c>
+      <c r="P142" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S142" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" s="8">
+        <v>4104</v>
+      </c>
+      <c r="B143" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G143" s="8">
+        <v>1</v>
+      </c>
+      <c r="H143" s="8">
+        <v>4103</v>
+      </c>
+      <c r="J143" s="8">
+        <v>20</v>
+      </c>
+      <c r="N143" s="8">
+        <v>5</v>
+      </c>
+      <c r="O143" s="8">
+        <v>1</v>
+      </c>
+      <c r="P143" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S143" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B144" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G144" s="8">
+        <v>1</v>
+      </c>
+      <c r="H144" s="8">
+        <v>4104</v>
+      </c>
+      <c r="J144" s="8">
+        <v>25</v>
+      </c>
+      <c r="N144" s="8">
+        <v>5</v>
+      </c>
+      <c r="O144" s="8">
+        <v>1</v>
+      </c>
+      <c r="P144" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S144" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" s="8">
+        <v>4106</v>
+      </c>
+      <c r="B145" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G145" s="8">
+        <v>1</v>
+      </c>
+      <c r="H145" s="8">
+        <v>4105</v>
+      </c>
+      <c r="J145" s="8">
+        <v>30</v>
+      </c>
+      <c r="N145" s="8">
+        <v>5</v>
+      </c>
+      <c r="O145" s="8">
+        <v>1</v>
+      </c>
+      <c r="P145" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" s="8">
+        <v>4107</v>
+      </c>
+      <c r="B146" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G146" s="8">
+        <v>1</v>
+      </c>
+      <c r="H146" s="8">
+        <v>4106</v>
+      </c>
+      <c r="J146" s="8">
+        <v>35</v>
+      </c>
+      <c r="N146" s="8">
+        <v>5</v>
+      </c>
+      <c r="O146" s="8">
+        <v>1</v>
+      </c>
+      <c r="P146" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S146" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147" s="8">
+        <v>4108</v>
+      </c>
+      <c r="B147" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G147" s="8">
+        <v>1</v>
+      </c>
+      <c r="H147" s="8">
+        <v>4107</v>
+      </c>
+      <c r="J147" s="8">
+        <v>40</v>
+      </c>
+      <c r="N147" s="8">
+        <v>5</v>
+      </c>
+      <c r="O147" s="8">
+        <v>1</v>
+      </c>
+      <c r="P147" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S147" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148" s="8">
+        <v>4109</v>
+      </c>
+      <c r="B148" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G148" s="8">
+        <v>1</v>
+      </c>
+      <c r="H148" s="8">
+        <v>4108</v>
+      </c>
+      <c r="J148" s="8">
+        <v>45</v>
+      </c>
+      <c r="N148" s="8">
+        <v>5</v>
+      </c>
+      <c r="O148" s="8">
+        <v>1</v>
+      </c>
+      <c r="P148" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149" s="8">
+        <v>4110</v>
+      </c>
+      <c r="B149" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G149" s="8">
+        <v>1</v>
+      </c>
+      <c r="H149" s="8">
+        <v>4109</v>
+      </c>
+      <c r="J149" s="8">
+        <v>50</v>
+      </c>
+      <c r="N149" s="8">
+        <v>5</v>
+      </c>
+      <c r="O149" s="8">
+        <v>1</v>
+      </c>
+      <c r="P149" s="8">
+        <v>2500</v>
+      </c>
+      <c r="S149" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150" s="8">
+        <v>4201</v>
+      </c>
+      <c r="B150" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G150" s="8">
+        <v>1</v>
+      </c>
+      <c r="H150" s="8">
+        <v>0</v>
+      </c>
+      <c r="J150" s="8">
+        <v>10</v>
+      </c>
+      <c r="N150" s="8">
+        <v>5</v>
+      </c>
+      <c r="O150" s="8">
+        <v>1</v>
+      </c>
+      <c r="P150" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S150" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" s="8">
+        <v>4202</v>
+      </c>
+      <c r="B151" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G151" s="8">
+        <v>1</v>
+      </c>
+      <c r="H151" s="8">
+        <v>4201</v>
+      </c>
+      <c r="J151" s="8">
+        <v>20</v>
+      </c>
+      <c r="N151" s="8">
+        <v>5</v>
+      </c>
+      <c r="O151" s="8">
+        <v>1</v>
+      </c>
+      <c r="P151" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S151" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" s="8">
+        <v>4203</v>
+      </c>
+      <c r="B152" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G152" s="8">
+        <v>1</v>
+      </c>
+      <c r="H152" s="8">
+        <v>4202</v>
+      </c>
+      <c r="J152" s="8">
+        <v>30</v>
+      </c>
+      <c r="N152" s="8">
+        <v>5</v>
+      </c>
+      <c r="O152" s="8">
+        <v>1</v>
+      </c>
+      <c r="P152" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" s="8">
+        <v>4204</v>
+      </c>
+      <c r="B153" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G153" s="8">
+        <v>1</v>
+      </c>
+      <c r="H153" s="8">
+        <v>4203</v>
+      </c>
+      <c r="J153" s="8">
+        <v>40</v>
+      </c>
+      <c r="N153" s="8">
+        <v>5</v>
+      </c>
+      <c r="O153" s="8">
+        <v>1</v>
+      </c>
+      <c r="P153" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S153" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154" s="8">
+        <v>4205</v>
+      </c>
+      <c r="B154" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G154" s="8">
+        <v>1</v>
+      </c>
+      <c r="H154" s="8">
+        <v>4204</v>
+      </c>
+      <c r="J154" s="8">
+        <v>50</v>
+      </c>
+      <c r="N154" s="8">
+        <v>5</v>
+      </c>
+      <c r="O154" s="8">
+        <v>1</v>
+      </c>
+      <c r="P154" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S154" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A155" s="8">
+        <v>4206</v>
+      </c>
+      <c r="B155" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G155" s="8">
+        <v>1</v>
+      </c>
+      <c r="H155" s="8">
+        <v>4205</v>
+      </c>
+      <c r="J155" s="8">
+        <v>60</v>
+      </c>
+      <c r="N155" s="8">
+        <v>5</v>
+      </c>
+      <c r="O155" s="8">
+        <v>1</v>
+      </c>
+      <c r="P155" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S155" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" s="8">
+        <v>4207</v>
+      </c>
+      <c r="B156" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G156" s="8">
+        <v>1</v>
+      </c>
+      <c r="H156" s="8">
+        <v>4206</v>
+      </c>
+      <c r="J156" s="8">
+        <v>70</v>
+      </c>
+      <c r="N156" s="8">
+        <v>5</v>
+      </c>
+      <c r="O156" s="8">
+        <v>1</v>
+      </c>
+      <c r="P156" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S156" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" s="8">
+        <v>4208</v>
+      </c>
+      <c r="B157" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G157" s="8">
+        <v>1</v>
+      </c>
+      <c r="H157" s="8">
+        <v>4207</v>
+      </c>
+      <c r="J157" s="8">
+        <v>80</v>
+      </c>
+      <c r="N157" s="8">
+        <v>5</v>
+      </c>
+      <c r="O157" s="8">
+        <v>1</v>
+      </c>
+      <c r="P157" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S157" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <v>4209</v>
+      </c>
+      <c r="B158" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G158" s="8">
+        <v>1</v>
+      </c>
+      <c r="H158" s="8">
+        <v>4208</v>
+      </c>
+      <c r="J158" s="8">
+        <v>90</v>
+      </c>
+      <c r="N158" s="8">
+        <v>5</v>
+      </c>
+      <c r="O158" s="8">
+        <v>1</v>
+      </c>
+      <c r="P158" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S158" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
+        <v>4210</v>
+      </c>
+      <c r="B159" s="8">
+        <v>4001</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G159" s="8">
+        <v>1</v>
+      </c>
+      <c r="H159" s="8">
+        <v>4209</v>
+      </c>
+      <c r="J159" s="8">
+        <v>100</v>
+      </c>
+      <c r="N159" s="8">
+        <v>5</v>
+      </c>
+      <c r="O159" s="8">
+        <v>1</v>
+      </c>
+      <c r="P159" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S159" s="8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="227">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -748,7 +748,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LuckTaskPara</t>
+    <t>LuckyTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLuckyFinal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S159"/>
+  <dimension ref="A1:T159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q143" sqref="Q143"/>
+      <selection activeCell="Q146" sqref="Q146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1198,10 +1202,11 @@
     <col min="17" max="17" width="22.59765625" style="4" customWidth="1"/>
     <col min="18" max="18" width="8.796875" style="4"/>
     <col min="19" max="19" width="14.296875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="4"/>
+    <col min="20" max="20" width="12.296875" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>169</v>
       </c>
@@ -1259,8 +1264,11 @@
       <c r="S1" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1318,8 +1326,11 @@
       <c r="S2" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
@@ -1349,7 +1360,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>101</v>
       </c>
@@ -1389,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>102</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>103</v>
       </c>
@@ -1469,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>104</v>
       </c>
@@ -1509,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>105</v>
       </c>
@@ -1549,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>106</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>121</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>122</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>123</v>
       </c>
@@ -1709,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>124</v>
       </c>
@@ -1749,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>125</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>126</v>
       </c>
@@ -7007,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>3020</v>
       </c>
@@ -7057,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>4001</v>
       </c>
@@ -7092,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>4002</v>
       </c>
@@ -7127,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>4003</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>4004</v>
       </c>
@@ -7197,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>4005</v>
       </c>
@@ -7232,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>4006</v>
       </c>
@@ -7267,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>4007</v>
       </c>
@@ -7302,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>4008</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>4009</v>
       </c>
@@ -7372,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>4010</v>
       </c>
@@ -7404,10 +7415,13 @@
         <v>500</v>
       </c>
       <c r="S139" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="T139" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>4101</v>
       </c>
@@ -7439,10 +7453,10 @@
         <v>500</v>
       </c>
       <c r="S140" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>4102</v>
       </c>
@@ -7474,10 +7488,10 @@
         <v>2500</v>
       </c>
       <c r="S141" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>4103</v>
       </c>
@@ -7509,10 +7523,10 @@
         <v>2500</v>
       </c>
       <c r="S142" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>4104</v>
       </c>
@@ -7544,10 +7558,10 @@
         <v>2500</v>
       </c>
       <c r="S143" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>4105</v>
       </c>
@@ -7579,10 +7593,10 @@
         <v>2500</v>
       </c>
       <c r="S144" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>4106</v>
       </c>
@@ -7614,10 +7628,10 @@
         <v>2500</v>
       </c>
       <c r="S145" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>4107</v>
       </c>
@@ -7649,10 +7663,10 @@
         <v>2500</v>
       </c>
       <c r="S146" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>4108</v>
       </c>
@@ -7684,10 +7698,10 @@
         <v>2500</v>
       </c>
       <c r="S147" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>4109</v>
       </c>
@@ -7719,10 +7733,10 @@
         <v>2500</v>
       </c>
       <c r="S148" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>4110</v>
       </c>
@@ -7756,8 +7770,11 @@
       <c r="S149" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>4201</v>
       </c>
@@ -7789,10 +7806,10 @@
         <v>5000</v>
       </c>
       <c r="S150" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>4202</v>
       </c>
@@ -7824,10 +7841,10 @@
         <v>5000</v>
       </c>
       <c r="S151" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>4203</v>
       </c>
@@ -7859,10 +7876,10 @@
         <v>5000</v>
       </c>
       <c r="S152" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>4204</v>
       </c>
@@ -7894,10 +7911,10 @@
         <v>5000</v>
       </c>
       <c r="S153" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>4205</v>
       </c>
@@ -7929,10 +7946,10 @@
         <v>5000</v>
       </c>
       <c r="S154" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>4206</v>
       </c>
@@ -7964,10 +7981,10 @@
         <v>5000</v>
       </c>
       <c r="S155" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>4207</v>
       </c>
@@ -7999,10 +8016,10 @@
         <v>5000</v>
       </c>
       <c r="S156" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>4208</v>
       </c>
@@ -8034,10 +8051,10 @@
         <v>5000</v>
       </c>
       <c r="S157" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>4209</v>
       </c>
@@ -8069,10 +8086,10 @@
         <v>5000</v>
       </c>
       <c r="S158" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>4210</v>
       </c>
@@ -8104,7 +8121,10 @@
         <v>5000</v>
       </c>
       <c r="S159" s="8">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="T159" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="256">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -621,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩常规场场数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运任务1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,6 +750,98 @@
   <si>
     <t>IsLuckyFinal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克中对局1场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克中对局2场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克中对局3场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局4场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局5场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局6场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局7场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局8场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局9场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局10场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局11场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局12场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局13场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局14场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局15场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局16场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局17场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局18场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局19场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局20场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局21场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局22场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局23场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局24场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局25场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局26场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局27场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局28场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局29场</t>
+  </si>
+  <si>
+    <t>在德州扑克中对局30场</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q146" sqref="Q146"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1278,7 @@
     <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
     <col min="3" max="3" width="24.09765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="4"/>
-    <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="4"/>
     <col min="7" max="7" width="12.3984375" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="4"/>
@@ -1262,10 +1350,10 @@
         <v>187</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1321,13 +1409,13 @@
         <v>183</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -7079,7 +7167,10 @@
         <v>192</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>193</v>
+        <v>226</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1</v>
       </c>
       <c r="G130" s="8">
         <v>1</v>
@@ -7088,6 +7179,12 @@
         <v>0</v>
       </c>
       <c r="J130" s="8">
+        <v>1</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M130" s="7">
         <v>1</v>
       </c>
       <c r="N130" s="8">
@@ -7098,6 +7195,9 @@
       </c>
       <c r="P130" s="8">
         <v>500</v>
+      </c>
+      <c r="R130" s="7">
+        <v>1</v>
       </c>
       <c r="S130" s="8">
         <v>1</v>
@@ -7111,10 +7211,13 @@
         <v>4001</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>193</v>
+        <v>227</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1</v>
       </c>
       <c r="G131" s="8">
         <v>1</v>
@@ -7125,6 +7228,12 @@
       <c r="J131" s="8">
         <v>2</v>
       </c>
+      <c r="L131" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M131" s="7">
+        <v>1</v>
+      </c>
       <c r="N131" s="8">
         <v>5</v>
       </c>
@@ -7133,6 +7242,9 @@
       </c>
       <c r="P131" s="8">
         <v>500</v>
+      </c>
+      <c r="R131" s="7">
+        <v>1</v>
       </c>
       <c r="S131" s="8">
         <v>1</v>
@@ -7146,10 +7258,13 @@
         <v>4001</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>193</v>
+        <v>228</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1</v>
       </c>
       <c r="G132" s="8">
         <v>1</v>
@@ -7160,6 +7275,12 @@
       <c r="J132" s="8">
         <v>3</v>
       </c>
+      <c r="L132" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M132" s="7">
+        <v>1</v>
+      </c>
       <c r="N132" s="8">
         <v>5</v>
       </c>
@@ -7168,6 +7289,9 @@
       </c>
       <c r="P132" s="8">
         <v>500</v>
+      </c>
+      <c r="R132" s="7">
+        <v>1</v>
       </c>
       <c r="S132" s="8">
         <v>1</v>
@@ -7181,10 +7305,13 @@
         <v>4001</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>193</v>
+        <v>229</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1</v>
       </c>
       <c r="G133" s="8">
         <v>1</v>
@@ -7195,6 +7322,12 @@
       <c r="J133" s="8">
         <v>4</v>
       </c>
+      <c r="L133" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M133" s="7">
+        <v>1</v>
+      </c>
       <c r="N133" s="8">
         <v>5</v>
       </c>
@@ -7203,6 +7336,9 @@
       </c>
       <c r="P133" s="8">
         <v>500</v>
+      </c>
+      <c r="R133" s="7">
+        <v>1</v>
       </c>
       <c r="S133" s="8">
         <v>1</v>
@@ -7216,10 +7352,13 @@
         <v>4001</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>193</v>
+        <v>230</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1</v>
       </c>
       <c r="G134" s="8">
         <v>1</v>
@@ -7230,6 +7369,12 @@
       <c r="J134" s="8">
         <v>5</v>
       </c>
+      <c r="L134" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M134" s="7">
+        <v>1</v>
+      </c>
       <c r="N134" s="8">
         <v>5</v>
       </c>
@@ -7238,6 +7383,9 @@
       </c>
       <c r="P134" s="8">
         <v>500</v>
+      </c>
+      <c r="R134" s="7">
+        <v>1</v>
       </c>
       <c r="S134" s="8">
         <v>1</v>
@@ -7251,10 +7399,13 @@
         <v>4001</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>193</v>
+        <v>231</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1</v>
       </c>
       <c r="G135" s="8">
         <v>1</v>
@@ -7265,6 +7416,12 @@
       <c r="J135" s="8">
         <v>6</v>
       </c>
+      <c r="L135" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M135" s="7">
+        <v>1</v>
+      </c>
       <c r="N135" s="8">
         <v>5</v>
       </c>
@@ -7273,6 +7430,9 @@
       </c>
       <c r="P135" s="8">
         <v>500</v>
+      </c>
+      <c r="R135" s="7">
+        <v>1</v>
       </c>
       <c r="S135" s="8">
         <v>1</v>
@@ -7286,10 +7446,13 @@
         <v>4001</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>193</v>
+        <v>232</v>
+      </c>
+      <c r="F136" s="7">
+        <v>1</v>
       </c>
       <c r="G136" s="8">
         <v>1</v>
@@ -7300,6 +7463,12 @@
       <c r="J136" s="8">
         <v>7</v>
       </c>
+      <c r="L136" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M136" s="7">
+        <v>1</v>
+      </c>
       <c r="N136" s="8">
         <v>5</v>
       </c>
@@ -7308,6 +7477,9 @@
       </c>
       <c r="P136" s="8">
         <v>500</v>
+      </c>
+      <c r="R136" s="7">
+        <v>1</v>
       </c>
       <c r="S136" s="8">
         <v>1</v>
@@ -7321,10 +7493,13 @@
         <v>4001</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>193</v>
+        <v>233</v>
+      </c>
+      <c r="F137" s="7">
+        <v>1</v>
       </c>
       <c r="G137" s="8">
         <v>1</v>
@@ -7335,6 +7510,12 @@
       <c r="J137" s="8">
         <v>8</v>
       </c>
+      <c r="L137" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M137" s="7">
+        <v>1</v>
+      </c>
       <c r="N137" s="8">
         <v>5</v>
       </c>
@@ -7343,6 +7524,9 @@
       </c>
       <c r="P137" s="8">
         <v>500</v>
+      </c>
+      <c r="R137" s="7">
+        <v>1</v>
       </c>
       <c r="S137" s="8">
         <v>1</v>
@@ -7356,10 +7540,13 @@
         <v>4001</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>193</v>
+        <v>234</v>
+      </c>
+      <c r="F138" s="7">
+        <v>1</v>
       </c>
       <c r="G138" s="8">
         <v>1</v>
@@ -7370,6 +7557,12 @@
       <c r="J138" s="8">
         <v>9</v>
       </c>
+      <c r="L138" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M138" s="7">
+        <v>1</v>
+      </c>
       <c r="N138" s="8">
         <v>5</v>
       </c>
@@ -7378,6 +7571,9 @@
       </c>
       <c r="P138" s="8">
         <v>500</v>
+      </c>
+      <c r="R138" s="7">
+        <v>1</v>
       </c>
       <c r="S138" s="8">
         <v>1</v>
@@ -7391,10 +7587,13 @@
         <v>4001</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>193</v>
+        <v>235</v>
+      </c>
+      <c r="F139" s="7">
+        <v>1</v>
       </c>
       <c r="G139" s="8">
         <v>1</v>
@@ -7405,6 +7604,12 @@
       <c r="J139" s="8">
         <v>10</v>
       </c>
+      <c r="L139" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M139" s="7">
+        <v>1</v>
+      </c>
       <c r="N139" s="8">
         <v>5</v>
       </c>
@@ -7413,6 +7618,9 @@
       </c>
       <c r="P139" s="8">
         <v>500</v>
+      </c>
+      <c r="R139" s="7">
+        <v>1</v>
       </c>
       <c r="S139" s="8">
         <v>1</v>
@@ -7429,10 +7637,13 @@
         <v>4001</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>193</v>
+        <v>236</v>
+      </c>
+      <c r="F140" s="7">
+        <v>1</v>
       </c>
       <c r="G140" s="8">
         <v>1</v>
@@ -7442,6 +7653,12 @@
       </c>
       <c r="J140" s="8">
         <v>5</v>
+      </c>
+      <c r="L140" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M140" s="7">
+        <v>1</v>
       </c>
       <c r="N140" s="8">
         <v>5</v>
@@ -7451,6 +7668,9 @@
       </c>
       <c r="P140" s="8">
         <v>500</v>
+      </c>
+      <c r="R140" s="7">
+        <v>1</v>
       </c>
       <c r="S140" s="8">
         <v>2</v>
@@ -7464,10 +7684,13 @@
         <v>4001</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>193</v>
+        <v>237</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1</v>
       </c>
       <c r="G141" s="8">
         <v>1</v>
@@ -7478,6 +7701,12 @@
       <c r="J141" s="8">
         <v>10</v>
       </c>
+      <c r="L141" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M141" s="7">
+        <v>1</v>
+      </c>
       <c r="N141" s="8">
         <v>5</v>
       </c>
@@ -7486,6 +7715,9 @@
       </c>
       <c r="P141" s="8">
         <v>2500</v>
+      </c>
+      <c r="R141" s="7">
+        <v>1</v>
       </c>
       <c r="S141" s="8">
         <v>2</v>
@@ -7499,10 +7731,13 @@
         <v>4001</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>193</v>
+        <v>238</v>
+      </c>
+      <c r="F142" s="7">
+        <v>1</v>
       </c>
       <c r="G142" s="8">
         <v>1</v>
@@ -7513,6 +7748,12 @@
       <c r="J142" s="8">
         <v>15</v>
       </c>
+      <c r="L142" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M142" s="7">
+        <v>1</v>
+      </c>
       <c r="N142" s="8">
         <v>5</v>
       </c>
@@ -7521,6 +7762,9 @@
       </c>
       <c r="P142" s="8">
         <v>2500</v>
+      </c>
+      <c r="R142" s="7">
+        <v>1</v>
       </c>
       <c r="S142" s="8">
         <v>2</v>
@@ -7534,10 +7778,13 @@
         <v>4001</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>193</v>
+        <v>239</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1</v>
       </c>
       <c r="G143" s="8">
         <v>1</v>
@@ -7548,6 +7795,12 @@
       <c r="J143" s="8">
         <v>20</v>
       </c>
+      <c r="L143" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M143" s="7">
+        <v>1</v>
+      </c>
       <c r="N143" s="8">
         <v>5</v>
       </c>
@@ -7556,6 +7809,9 @@
       </c>
       <c r="P143" s="8">
         <v>2500</v>
+      </c>
+      <c r="R143" s="7">
+        <v>1</v>
       </c>
       <c r="S143" s="8">
         <v>2</v>
@@ -7569,10 +7825,13 @@
         <v>4001</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>193</v>
+        <v>240</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1</v>
       </c>
       <c r="G144" s="8">
         <v>1</v>
@@ -7583,6 +7842,12 @@
       <c r="J144" s="8">
         <v>25</v>
       </c>
+      <c r="L144" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M144" s="7">
+        <v>1</v>
+      </c>
       <c r="N144" s="8">
         <v>5</v>
       </c>
@@ -7591,6 +7856,9 @@
       </c>
       <c r="P144" s="8">
         <v>2500</v>
+      </c>
+      <c r="R144" s="7">
+        <v>1</v>
       </c>
       <c r="S144" s="8">
         <v>2</v>
@@ -7604,10 +7872,13 @@
         <v>4001</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>193</v>
+        <v>241</v>
+      </c>
+      <c r="F145" s="7">
+        <v>1</v>
       </c>
       <c r="G145" s="8">
         <v>1</v>
@@ -7618,6 +7889,12 @@
       <c r="J145" s="8">
         <v>30</v>
       </c>
+      <c r="L145" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M145" s="7">
+        <v>1</v>
+      </c>
       <c r="N145" s="8">
         <v>5</v>
       </c>
@@ -7626,6 +7903,9 @@
       </c>
       <c r="P145" s="8">
         <v>2500</v>
+      </c>
+      <c r="R145" s="7">
+        <v>1</v>
       </c>
       <c r="S145" s="8">
         <v>2</v>
@@ -7639,10 +7919,13 @@
         <v>4001</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>193</v>
+        <v>242</v>
+      </c>
+      <c r="F146" s="7">
+        <v>1</v>
       </c>
       <c r="G146" s="8">
         <v>1</v>
@@ -7653,6 +7936,12 @@
       <c r="J146" s="8">
         <v>35</v>
       </c>
+      <c r="L146" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M146" s="7">
+        <v>1</v>
+      </c>
       <c r="N146" s="8">
         <v>5</v>
       </c>
@@ -7661,6 +7950,9 @@
       </c>
       <c r="P146" s="8">
         <v>2500</v>
+      </c>
+      <c r="R146" s="7">
+        <v>1</v>
       </c>
       <c r="S146" s="8">
         <v>2</v>
@@ -7674,10 +7966,13 @@
         <v>4001</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>193</v>
+        <v>243</v>
+      </c>
+      <c r="F147" s="7">
+        <v>1</v>
       </c>
       <c r="G147" s="8">
         <v>1</v>
@@ -7688,6 +7983,12 @@
       <c r="J147" s="8">
         <v>40</v>
       </c>
+      <c r="L147" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M147" s="7">
+        <v>1</v>
+      </c>
       <c r="N147" s="8">
         <v>5</v>
       </c>
@@ -7696,6 +7997,9 @@
       </c>
       <c r="P147" s="8">
         <v>2500</v>
+      </c>
+      <c r="R147" s="7">
+        <v>1</v>
       </c>
       <c r="S147" s="8">
         <v>2</v>
@@ -7709,10 +8013,13 @@
         <v>4001</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>193</v>
+        <v>244</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1</v>
       </c>
       <c r="G148" s="8">
         <v>1</v>
@@ -7723,6 +8030,12 @@
       <c r="J148" s="8">
         <v>45</v>
       </c>
+      <c r="L148" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M148" s="7">
+        <v>1</v>
+      </c>
       <c r="N148" s="8">
         <v>5</v>
       </c>
@@ -7731,6 +8044,9 @@
       </c>
       <c r="P148" s="8">
         <v>2500</v>
+      </c>
+      <c r="R148" s="7">
+        <v>1</v>
       </c>
       <c r="S148" s="8">
         <v>2</v>
@@ -7744,10 +8060,13 @@
         <v>4001</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>193</v>
+        <v>245</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1</v>
       </c>
       <c r="G149" s="8">
         <v>1</v>
@@ -7758,6 +8077,12 @@
       <c r="J149" s="8">
         <v>50</v>
       </c>
+      <c r="L149" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M149" s="7">
+        <v>1</v>
+      </c>
       <c r="N149" s="8">
         <v>5</v>
       </c>
@@ -7766,6 +8091,9 @@
       </c>
       <c r="P149" s="8">
         <v>2500</v>
+      </c>
+      <c r="R149" s="7">
+        <v>1</v>
       </c>
       <c r="S149" s="8">
         <v>2</v>
@@ -7782,10 +8110,13 @@
         <v>4001</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>193</v>
+        <v>246</v>
+      </c>
+      <c r="F150" s="7">
+        <v>1</v>
       </c>
       <c r="G150" s="8">
         <v>1</v>
@@ -7796,6 +8127,12 @@
       <c r="J150" s="8">
         <v>10</v>
       </c>
+      <c r="L150" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M150" s="7">
+        <v>1</v>
+      </c>
       <c r="N150" s="8">
         <v>5</v>
       </c>
@@ -7804,6 +8141,9 @@
       </c>
       <c r="P150" s="8">
         <v>5000</v>
+      </c>
+      <c r="R150" s="7">
+        <v>1</v>
       </c>
       <c r="S150" s="8">
         <v>3</v>
@@ -7817,10 +8157,13 @@
         <v>4001</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>193</v>
+        <v>247</v>
+      </c>
+      <c r="F151" s="7">
+        <v>1</v>
       </c>
       <c r="G151" s="8">
         <v>1</v>
@@ -7831,6 +8174,12 @@
       <c r="J151" s="8">
         <v>20</v>
       </c>
+      <c r="L151" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M151" s="7">
+        <v>1</v>
+      </c>
       <c r="N151" s="8">
         <v>5</v>
       </c>
@@ -7839,6 +8188,9 @@
       </c>
       <c r="P151" s="8">
         <v>5000</v>
+      </c>
+      <c r="R151" s="7">
+        <v>1</v>
       </c>
       <c r="S151" s="8">
         <v>3</v>
@@ -7852,10 +8204,13 @@
         <v>4001</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>193</v>
+        <v>248</v>
+      </c>
+      <c r="F152" s="7">
+        <v>1</v>
       </c>
       <c r="G152" s="8">
         <v>1</v>
@@ -7866,6 +8221,12 @@
       <c r="J152" s="8">
         <v>30</v>
       </c>
+      <c r="L152" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M152" s="7">
+        <v>1</v>
+      </c>
       <c r="N152" s="8">
         <v>5</v>
       </c>
@@ -7874,6 +8235,9 @@
       </c>
       <c r="P152" s="8">
         <v>5000</v>
+      </c>
+      <c r="R152" s="7">
+        <v>1</v>
       </c>
       <c r="S152" s="8">
         <v>3</v>
@@ -7887,10 +8251,13 @@
         <v>4001</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>193</v>
+        <v>249</v>
+      </c>
+      <c r="F153" s="7">
+        <v>1</v>
       </c>
       <c r="G153" s="8">
         <v>1</v>
@@ -7901,6 +8268,12 @@
       <c r="J153" s="8">
         <v>40</v>
       </c>
+      <c r="L153" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M153" s="7">
+        <v>1</v>
+      </c>
       <c r="N153" s="8">
         <v>5</v>
       </c>
@@ -7909,6 +8282,9 @@
       </c>
       <c r="P153" s="8">
         <v>5000</v>
+      </c>
+      <c r="R153" s="7">
+        <v>1</v>
       </c>
       <c r="S153" s="8">
         <v>3</v>
@@ -7922,10 +8298,13 @@
         <v>4001</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>193</v>
+        <v>250</v>
+      </c>
+      <c r="F154" s="7">
+        <v>1</v>
       </c>
       <c r="G154" s="8">
         <v>1</v>
@@ -7936,6 +8315,12 @@
       <c r="J154" s="8">
         <v>50</v>
       </c>
+      <c r="L154" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M154" s="7">
+        <v>1</v>
+      </c>
       <c r="N154" s="8">
         <v>5</v>
       </c>
@@ -7944,6 +8329,9 @@
       </c>
       <c r="P154" s="8">
         <v>5000</v>
+      </c>
+      <c r="R154" s="7">
+        <v>1</v>
       </c>
       <c r="S154" s="8">
         <v>3</v>
@@ -7957,10 +8345,13 @@
         <v>4001</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>193</v>
+        <v>251</v>
+      </c>
+      <c r="F155" s="7">
+        <v>1</v>
       </c>
       <c r="G155" s="8">
         <v>1</v>
@@ -7971,6 +8362,12 @@
       <c r="J155" s="8">
         <v>60</v>
       </c>
+      <c r="L155" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M155" s="7">
+        <v>1</v>
+      </c>
       <c r="N155" s="8">
         <v>5</v>
       </c>
@@ -7979,6 +8376,9 @@
       </c>
       <c r="P155" s="8">
         <v>5000</v>
+      </c>
+      <c r="R155" s="7">
+        <v>1</v>
       </c>
       <c r="S155" s="8">
         <v>3</v>
@@ -7992,10 +8392,13 @@
         <v>4001</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>193</v>
+        <v>252</v>
+      </c>
+      <c r="F156" s="7">
+        <v>1</v>
       </c>
       <c r="G156" s="8">
         <v>1</v>
@@ -8006,6 +8409,12 @@
       <c r="J156" s="8">
         <v>70</v>
       </c>
+      <c r="L156" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M156" s="7">
+        <v>1</v>
+      </c>
       <c r="N156" s="8">
         <v>5</v>
       </c>
@@ -8014,6 +8423,9 @@
       </c>
       <c r="P156" s="8">
         <v>5000</v>
+      </c>
+      <c r="R156" s="7">
+        <v>1</v>
       </c>
       <c r="S156" s="8">
         <v>3</v>
@@ -8027,10 +8439,13 @@
         <v>4001</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>193</v>
+        <v>253</v>
+      </c>
+      <c r="F157" s="7">
+        <v>1</v>
       </c>
       <c r="G157" s="8">
         <v>1</v>
@@ -8041,6 +8456,12 @@
       <c r="J157" s="8">
         <v>80</v>
       </c>
+      <c r="L157" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M157" s="7">
+        <v>1</v>
+      </c>
       <c r="N157" s="8">
         <v>5</v>
       </c>
@@ -8049,6 +8470,9 @@
       </c>
       <c r="P157" s="8">
         <v>5000</v>
+      </c>
+      <c r="R157" s="7">
+        <v>1</v>
       </c>
       <c r="S157" s="8">
         <v>3</v>
@@ -8062,10 +8486,13 @@
         <v>4001</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>193</v>
+        <v>254</v>
+      </c>
+      <c r="F158" s="7">
+        <v>1</v>
       </c>
       <c r="G158" s="8">
         <v>1</v>
@@ -8076,6 +8503,12 @@
       <c r="J158" s="8">
         <v>90</v>
       </c>
+      <c r="L158" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M158" s="7">
+        <v>1</v>
+      </c>
       <c r="N158" s="8">
         <v>5</v>
       </c>
@@ -8084,6 +8517,9 @@
       </c>
       <c r="P158" s="8">
         <v>5000</v>
+      </c>
+      <c r="R158" s="7">
+        <v>1</v>
       </c>
       <c r="S158" s="8">
         <v>3</v>
@@ -8097,10 +8533,13 @@
         <v>4001</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>193</v>
+        <v>255</v>
+      </c>
+      <c r="F159" s="7">
+        <v>1</v>
       </c>
       <c r="G159" s="8">
         <v>1</v>
@@ -8111,6 +8550,12 @@
       <c r="J159" s="8">
         <v>100</v>
       </c>
+      <c r="L159" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M159" s="7">
+        <v>1</v>
+      </c>
       <c r="N159" s="8">
         <v>5</v>
       </c>
@@ -8119,6 +8564,9 @@
       </c>
       <c r="P159" s="8">
         <v>5000</v>
+      </c>
+      <c r="R159" s="7">
+        <v>1</v>
       </c>
       <c r="S159" s="8">
         <v>3</v>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q146" sqref="Q146"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7426,7 +7426,7 @@
         <v>4101</v>
       </c>
       <c r="B140" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>203</v>
@@ -7461,7 +7461,7 @@
         <v>4102</v>
       </c>
       <c r="B141" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>204</v>
@@ -7496,7 +7496,7 @@
         <v>4103</v>
       </c>
       <c r="B142" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>205</v>
@@ -7531,7 +7531,7 @@
         <v>4104</v>
       </c>
       <c r="B143" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>206</v>
@@ -7566,7 +7566,7 @@
         <v>4105</v>
       </c>
       <c r="B144" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>207</v>
@@ -7601,7 +7601,7 @@
         <v>4106</v>
       </c>
       <c r="B145" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>208</v>
@@ -7636,7 +7636,7 @@
         <v>4107</v>
       </c>
       <c r="B146" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>209</v>
@@ -7671,7 +7671,7 @@
         <v>4108</v>
       </c>
       <c r="B147" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>210</v>
@@ -7706,7 +7706,7 @@
         <v>4109</v>
       </c>
       <c r="B148" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>211</v>
@@ -7741,7 +7741,7 @@
         <v>4110</v>
       </c>
       <c r="B149" s="8">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>212</v>
@@ -7779,7 +7779,7 @@
         <v>4201</v>
       </c>
       <c r="B150" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>215</v>
@@ -7814,7 +7814,7 @@
         <v>4202</v>
       </c>
       <c r="B151" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>216</v>
@@ -7849,7 +7849,7 @@
         <v>4203</v>
       </c>
       <c r="B152" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>217</v>
@@ -7884,7 +7884,7 @@
         <v>4204</v>
       </c>
       <c r="B153" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>218</v>
@@ -7919,7 +7919,7 @@
         <v>4205</v>
       </c>
       <c r="B154" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>219</v>
@@ -7954,7 +7954,7 @@
         <v>4206</v>
       </c>
       <c r="B155" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>220</v>
@@ -7989,7 +7989,7 @@
         <v>4207</v>
       </c>
       <c r="B156" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>221</v>
@@ -8024,7 +8024,7 @@
         <v>4208</v>
       </c>
       <c r="B157" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>222</v>
@@ -8059,7 +8059,7 @@
         <v>4209</v>
       </c>
       <c r="B158" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>223</v>
@@ -8094,7 +8094,7 @@
         <v>4210</v>
       </c>
       <c r="B159" s="8">
-        <v>4001</v>
+        <v>4201</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>224</v>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="227">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7078,9 +7078,15 @@
       <c r="C130" s="6" t="s">
         <v>192</v>
       </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
       <c r="E130" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
       <c r="G130" s="8">
         <v>1</v>
       </c>
@@ -7088,6 +7094,12 @@
         <v>0</v>
       </c>
       <c r="J130" s="8">
+        <v>1</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M130" s="7">
         <v>1</v>
       </c>
       <c r="N130" s="8">
@@ -7098,6 +7110,10 @@
       </c>
       <c r="P130" s="8">
         <v>500</v>
+      </c>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7">
+        <v>1</v>
       </c>
       <c r="S130" s="8">
         <v>1</v>
@@ -7113,9 +7129,15 @@
       <c r="C131" s="6" t="s">
         <v>194</v>
       </c>
+      <c r="D131" s="7">
+        <v>1</v>
+      </c>
       <c r="E131" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
       <c r="G131" s="8">
         <v>1</v>
       </c>
@@ -7125,6 +7147,12 @@
       <c r="J131" s="8">
         <v>2</v>
       </c>
+      <c r="L131" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M131" s="7">
+        <v>1</v>
+      </c>
       <c r="N131" s="8">
         <v>5</v>
       </c>
@@ -7133,6 +7161,10 @@
       </c>
       <c r="P131" s="8">
         <v>500</v>
+      </c>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7">
+        <v>1</v>
       </c>
       <c r="S131" s="8">
         <v>1</v>
@@ -7148,9 +7180,15 @@
       <c r="C132" s="6" t="s">
         <v>195</v>
       </c>
+      <c r="D132" s="7">
+        <v>1</v>
+      </c>
       <c r="E132" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F132" s="7">
+        <v>1</v>
+      </c>
       <c r="G132" s="8">
         <v>1</v>
       </c>
@@ -7160,6 +7198,12 @@
       <c r="J132" s="8">
         <v>3</v>
       </c>
+      <c r="L132" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M132" s="7">
+        <v>1</v>
+      </c>
       <c r="N132" s="8">
         <v>5</v>
       </c>
@@ -7168,6 +7212,10 @@
       </c>
       <c r="P132" s="8">
         <v>500</v>
+      </c>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="7">
+        <v>1</v>
       </c>
       <c r="S132" s="8">
         <v>1</v>
@@ -7183,9 +7231,15 @@
       <c r="C133" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
       <c r="E133" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F133" s="7">
+        <v>1</v>
+      </c>
       <c r="G133" s="8">
         <v>1</v>
       </c>
@@ -7195,6 +7249,12 @@
       <c r="J133" s="8">
         <v>4</v>
       </c>
+      <c r="L133" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M133" s="7">
+        <v>1</v>
+      </c>
       <c r="N133" s="8">
         <v>5</v>
       </c>
@@ -7203,6 +7263,10 @@
       </c>
       <c r="P133" s="8">
         <v>500</v>
+      </c>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7">
+        <v>1</v>
       </c>
       <c r="S133" s="8">
         <v>1</v>
@@ -7218,9 +7282,15 @@
       <c r="C134" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
       <c r="E134" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F134" s="7">
+        <v>1</v>
+      </c>
       <c r="G134" s="8">
         <v>1</v>
       </c>
@@ -7230,6 +7300,12 @@
       <c r="J134" s="8">
         <v>5</v>
       </c>
+      <c r="L134" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M134" s="7">
+        <v>1</v>
+      </c>
       <c r="N134" s="8">
         <v>5</v>
       </c>
@@ -7238,6 +7314,10 @@
       </c>
       <c r="P134" s="8">
         <v>500</v>
+      </c>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7">
+        <v>1</v>
       </c>
       <c r="S134" s="8">
         <v>1</v>
@@ -7253,9 +7333,15 @@
       <c r="C135" s="6" t="s">
         <v>198</v>
       </c>
+      <c r="D135" s="7">
+        <v>1</v>
+      </c>
       <c r="E135" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
       <c r="G135" s="8">
         <v>1</v>
       </c>
@@ -7265,6 +7351,12 @@
       <c r="J135" s="8">
         <v>6</v>
       </c>
+      <c r="L135" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M135" s="7">
+        <v>1</v>
+      </c>
       <c r="N135" s="8">
         <v>5</v>
       </c>
@@ -7273,6 +7365,10 @@
       </c>
       <c r="P135" s="8">
         <v>500</v>
+      </c>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7">
+        <v>1</v>
       </c>
       <c r="S135" s="8">
         <v>1</v>
@@ -7288,9 +7384,15 @@
       <c r="C136" s="6" t="s">
         <v>199</v>
       </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
       <c r="E136" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F136" s="7">
+        <v>1</v>
+      </c>
       <c r="G136" s="8">
         <v>1</v>
       </c>
@@ -7300,6 +7402,12 @@
       <c r="J136" s="8">
         <v>7</v>
       </c>
+      <c r="L136" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M136" s="7">
+        <v>1</v>
+      </c>
       <c r="N136" s="8">
         <v>5</v>
       </c>
@@ -7308,6 +7416,10 @@
       </c>
       <c r="P136" s="8">
         <v>500</v>
+      </c>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7">
+        <v>1</v>
       </c>
       <c r="S136" s="8">
         <v>1</v>
@@ -7323,9 +7435,15 @@
       <c r="C137" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="D137" s="7">
+        <v>1</v>
+      </c>
       <c r="E137" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F137" s="7">
+        <v>1</v>
+      </c>
       <c r="G137" s="8">
         <v>1</v>
       </c>
@@ -7335,6 +7453,12 @@
       <c r="J137" s="8">
         <v>8</v>
       </c>
+      <c r="L137" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M137" s="7">
+        <v>1</v>
+      </c>
       <c r="N137" s="8">
         <v>5</v>
       </c>
@@ -7343,6 +7467,10 @@
       </c>
       <c r="P137" s="8">
         <v>500</v>
+      </c>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7">
+        <v>1</v>
       </c>
       <c r="S137" s="8">
         <v>1</v>
@@ -7358,9 +7486,15 @@
       <c r="C138" s="6" t="s">
         <v>201</v>
       </c>
+      <c r="D138" s="7">
+        <v>1</v>
+      </c>
       <c r="E138" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F138" s="7">
+        <v>1</v>
+      </c>
       <c r="G138" s="8">
         <v>1</v>
       </c>
@@ -7370,6 +7504,12 @@
       <c r="J138" s="8">
         <v>9</v>
       </c>
+      <c r="L138" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M138" s="7">
+        <v>1</v>
+      </c>
       <c r="N138" s="8">
         <v>5</v>
       </c>
@@ -7378,6 +7518,10 @@
       </c>
       <c r="P138" s="8">
         <v>500</v>
+      </c>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7">
+        <v>1</v>
       </c>
       <c r="S138" s="8">
         <v>1</v>
@@ -7393,9 +7537,15 @@
       <c r="C139" s="6" t="s">
         <v>202</v>
       </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
       <c r="E139" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F139" s="7">
+        <v>1</v>
+      </c>
       <c r="G139" s="8">
         <v>1</v>
       </c>
@@ -7405,6 +7555,12 @@
       <c r="J139" s="8">
         <v>10</v>
       </c>
+      <c r="L139" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M139" s="7">
+        <v>1</v>
+      </c>
       <c r="N139" s="8">
         <v>5</v>
       </c>
@@ -7413,6 +7569,10 @@
       </c>
       <c r="P139" s="8">
         <v>500</v>
+      </c>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7">
+        <v>1</v>
       </c>
       <c r="S139" s="8">
         <v>1</v>
@@ -7431,9 +7591,15 @@
       <c r="C140" s="6" t="s">
         <v>203</v>
       </c>
+      <c r="D140" s="7">
+        <v>2</v>
+      </c>
       <c r="E140" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F140" s="7">
+        <v>1</v>
+      </c>
       <c r="G140" s="8">
         <v>1</v>
       </c>
@@ -7442,6 +7608,12 @@
       </c>
       <c r="J140" s="8">
         <v>5</v>
+      </c>
+      <c r="L140" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M140" s="7">
+        <v>1</v>
       </c>
       <c r="N140" s="8">
         <v>5</v>
@@ -7451,6 +7623,10 @@
       </c>
       <c r="P140" s="8">
         <v>500</v>
+      </c>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7">
+        <v>1</v>
       </c>
       <c r="S140" s="8">
         <v>2</v>
@@ -7466,9 +7642,15 @@
       <c r="C141" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="D141" s="7">
+        <v>2</v>
+      </c>
       <c r="E141" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F141" s="7">
+        <v>1</v>
+      </c>
       <c r="G141" s="8">
         <v>1</v>
       </c>
@@ -7478,6 +7660,12 @@
       <c r="J141" s="8">
         <v>10</v>
       </c>
+      <c r="L141" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M141" s="7">
+        <v>1</v>
+      </c>
       <c r="N141" s="8">
         <v>5</v>
       </c>
@@ -7486,6 +7674,10 @@
       </c>
       <c r="P141" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7">
+        <v>1</v>
       </c>
       <c r="S141" s="8">
         <v>2</v>
@@ -7501,9 +7693,15 @@
       <c r="C142" s="6" t="s">
         <v>205</v>
       </c>
+      <c r="D142" s="7">
+        <v>2</v>
+      </c>
       <c r="E142" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F142" s="7">
+        <v>1</v>
+      </c>
       <c r="G142" s="8">
         <v>1</v>
       </c>
@@ -7513,6 +7711,12 @@
       <c r="J142" s="8">
         <v>15</v>
       </c>
+      <c r="L142" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M142" s="7">
+        <v>1</v>
+      </c>
       <c r="N142" s="8">
         <v>5</v>
       </c>
@@ -7521,6 +7725,10 @@
       </c>
       <c r="P142" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7">
+        <v>1</v>
       </c>
       <c r="S142" s="8">
         <v>2</v>
@@ -7536,9 +7744,15 @@
       <c r="C143" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="D143" s="7">
+        <v>2</v>
+      </c>
       <c r="E143" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
       <c r="G143" s="8">
         <v>1</v>
       </c>
@@ -7548,6 +7762,12 @@
       <c r="J143" s="8">
         <v>20</v>
       </c>
+      <c r="L143" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M143" s="7">
+        <v>1</v>
+      </c>
       <c r="N143" s="8">
         <v>5</v>
       </c>
@@ -7556,6 +7776,10 @@
       </c>
       <c r="P143" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q143" s="7"/>
+      <c r="R143" s="7">
+        <v>1</v>
       </c>
       <c r="S143" s="8">
         <v>2</v>
@@ -7571,9 +7795,15 @@
       <c r="C144" s="6" t="s">
         <v>207</v>
       </c>
+      <c r="D144" s="7">
+        <v>2</v>
+      </c>
       <c r="E144" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
       <c r="G144" s="8">
         <v>1</v>
       </c>
@@ -7583,6 +7813,12 @@
       <c r="J144" s="8">
         <v>25</v>
       </c>
+      <c r="L144" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M144" s="7">
+        <v>1</v>
+      </c>
       <c r="N144" s="8">
         <v>5</v>
       </c>
@@ -7591,6 +7827,10 @@
       </c>
       <c r="P144" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7">
+        <v>1</v>
       </c>
       <c r="S144" s="8">
         <v>2</v>
@@ -7606,9 +7846,15 @@
       <c r="C145" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="D145" s="7">
+        <v>2</v>
+      </c>
       <c r="E145" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
       <c r="G145" s="8">
         <v>1</v>
       </c>
@@ -7618,6 +7864,12 @@
       <c r="J145" s="8">
         <v>30</v>
       </c>
+      <c r="L145" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M145" s="7">
+        <v>1</v>
+      </c>
       <c r="N145" s="8">
         <v>5</v>
       </c>
@@ -7626,6 +7878,10 @@
       </c>
       <c r="P145" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7">
+        <v>1</v>
       </c>
       <c r="S145" s="8">
         <v>2</v>
@@ -7641,9 +7897,15 @@
       <c r="C146" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="D146" s="7">
+        <v>2</v>
+      </c>
       <c r="E146" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F146" s="7">
+        <v>1</v>
+      </c>
       <c r="G146" s="8">
         <v>1</v>
       </c>
@@ -7653,6 +7915,12 @@
       <c r="J146" s="8">
         <v>35</v>
       </c>
+      <c r="L146" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M146" s="7">
+        <v>1</v>
+      </c>
       <c r="N146" s="8">
         <v>5</v>
       </c>
@@ -7661,6 +7929,10 @@
       </c>
       <c r="P146" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7">
+        <v>1</v>
       </c>
       <c r="S146" s="8">
         <v>2</v>
@@ -7676,9 +7948,15 @@
       <c r="C147" s="6" t="s">
         <v>210</v>
       </c>
+      <c r="D147" s="7">
+        <v>2</v>
+      </c>
       <c r="E147" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F147" s="7">
+        <v>1</v>
+      </c>
       <c r="G147" s="8">
         <v>1</v>
       </c>
@@ -7688,6 +7966,12 @@
       <c r="J147" s="8">
         <v>40</v>
       </c>
+      <c r="L147" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M147" s="7">
+        <v>1</v>
+      </c>
       <c r="N147" s="8">
         <v>5</v>
       </c>
@@ -7696,6 +7980,10 @@
       </c>
       <c r="P147" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7">
+        <v>1</v>
       </c>
       <c r="S147" s="8">
         <v>2</v>
@@ -7711,9 +7999,15 @@
       <c r="C148" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="D148" s="7">
+        <v>2</v>
+      </c>
       <c r="E148" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F148" s="7">
+        <v>1</v>
+      </c>
       <c r="G148" s="8">
         <v>1</v>
       </c>
@@ -7723,6 +8017,12 @@
       <c r="J148" s="8">
         <v>45</v>
       </c>
+      <c r="L148" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M148" s="7">
+        <v>1</v>
+      </c>
       <c r="N148" s="8">
         <v>5</v>
       </c>
@@ -7731,6 +8031,10 @@
       </c>
       <c r="P148" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7">
+        <v>1</v>
       </c>
       <c r="S148" s="8">
         <v>2</v>
@@ -7746,9 +8050,15 @@
       <c r="C149" s="6" t="s">
         <v>212</v>
       </c>
+      <c r="D149" s="7">
+        <v>2</v>
+      </c>
       <c r="E149" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
       <c r="G149" s="8">
         <v>1</v>
       </c>
@@ -7758,6 +8068,12 @@
       <c r="J149" s="8">
         <v>50</v>
       </c>
+      <c r="L149" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M149" s="7">
+        <v>1</v>
+      </c>
       <c r="N149" s="8">
         <v>5</v>
       </c>
@@ -7766,6 +8082,10 @@
       </c>
       <c r="P149" s="8">
         <v>2500</v>
+      </c>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7">
+        <v>1</v>
       </c>
       <c r="S149" s="8">
         <v>2</v>
@@ -7784,9 +8104,15 @@
       <c r="C150" s="6" t="s">
         <v>215</v>
       </c>
+      <c r="D150" s="7">
+        <v>3</v>
+      </c>
       <c r="E150" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F150" s="7">
+        <v>1</v>
+      </c>
       <c r="G150" s="8">
         <v>1</v>
       </c>
@@ -7796,6 +8122,12 @@
       <c r="J150" s="8">
         <v>10</v>
       </c>
+      <c r="L150" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M150" s="7">
+        <v>1</v>
+      </c>
       <c r="N150" s="8">
         <v>5</v>
       </c>
@@ -7804,6 +8136,10 @@
       </c>
       <c r="P150" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7">
+        <v>1</v>
       </c>
       <c r="S150" s="8">
         <v>3</v>
@@ -7819,9 +8155,15 @@
       <c r="C151" s="6" t="s">
         <v>216</v>
       </c>
+      <c r="D151" s="7">
+        <v>3</v>
+      </c>
       <c r="E151" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
       <c r="G151" s="8">
         <v>1</v>
       </c>
@@ -7831,6 +8173,12 @@
       <c r="J151" s="8">
         <v>20</v>
       </c>
+      <c r="L151" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M151" s="7">
+        <v>1</v>
+      </c>
       <c r="N151" s="8">
         <v>5</v>
       </c>
@@ -7839,6 +8187,10 @@
       </c>
       <c r="P151" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7">
+        <v>1</v>
       </c>
       <c r="S151" s="8">
         <v>3</v>
@@ -7854,9 +8206,15 @@
       <c r="C152" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="D152" s="7">
+        <v>3</v>
+      </c>
       <c r="E152" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F152" s="7">
+        <v>1</v>
+      </c>
       <c r="G152" s="8">
         <v>1</v>
       </c>
@@ -7866,6 +8224,12 @@
       <c r="J152" s="8">
         <v>30</v>
       </c>
+      <c r="L152" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M152" s="7">
+        <v>1</v>
+      </c>
       <c r="N152" s="8">
         <v>5</v>
       </c>
@@ -7874,6 +8238,10 @@
       </c>
       <c r="P152" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7">
+        <v>1</v>
       </c>
       <c r="S152" s="8">
         <v>3</v>
@@ -7889,9 +8257,15 @@
       <c r="C153" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="D153" s="7">
+        <v>3</v>
+      </c>
       <c r="E153" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F153" s="7">
+        <v>1</v>
+      </c>
       <c r="G153" s="8">
         <v>1</v>
       </c>
@@ -7901,6 +8275,12 @@
       <c r="J153" s="8">
         <v>40</v>
       </c>
+      <c r="L153" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M153" s="7">
+        <v>1</v>
+      </c>
       <c r="N153" s="8">
         <v>5</v>
       </c>
@@ -7909,6 +8289,10 @@
       </c>
       <c r="P153" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7">
+        <v>1</v>
       </c>
       <c r="S153" s="8">
         <v>3</v>
@@ -7924,9 +8308,15 @@
       <c r="C154" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="D154" s="7">
+        <v>3</v>
+      </c>
       <c r="E154" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F154" s="7">
+        <v>1</v>
+      </c>
       <c r="G154" s="8">
         <v>1</v>
       </c>
@@ -7936,6 +8326,12 @@
       <c r="J154" s="8">
         <v>50</v>
       </c>
+      <c r="L154" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M154" s="7">
+        <v>1</v>
+      </c>
       <c r="N154" s="8">
         <v>5</v>
       </c>
@@ -7944,6 +8340,10 @@
       </c>
       <c r="P154" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q154" s="7"/>
+      <c r="R154" s="7">
+        <v>1</v>
       </c>
       <c r="S154" s="8">
         <v>3</v>
@@ -7959,9 +8359,15 @@
       <c r="C155" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="D155" s="7">
+        <v>3</v>
+      </c>
       <c r="E155" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F155" s="7">
+        <v>1</v>
+      </c>
       <c r="G155" s="8">
         <v>1</v>
       </c>
@@ -7971,6 +8377,12 @@
       <c r="J155" s="8">
         <v>60</v>
       </c>
+      <c r="L155" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M155" s="7">
+        <v>1</v>
+      </c>
       <c r="N155" s="8">
         <v>5</v>
       </c>
@@ -7979,6 +8391,10 @@
       </c>
       <c r="P155" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7">
+        <v>1</v>
       </c>
       <c r="S155" s="8">
         <v>3</v>
@@ -7994,9 +8410,15 @@
       <c r="C156" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="D156" s="7">
+        <v>3</v>
+      </c>
       <c r="E156" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
       <c r="G156" s="8">
         <v>1</v>
       </c>
@@ -8006,6 +8428,12 @@
       <c r="J156" s="8">
         <v>70</v>
       </c>
+      <c r="L156" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M156" s="7">
+        <v>1</v>
+      </c>
       <c r="N156" s="8">
         <v>5</v>
       </c>
@@ -8014,6 +8442,10 @@
       </c>
       <c r="P156" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7">
+        <v>1</v>
       </c>
       <c r="S156" s="8">
         <v>3</v>
@@ -8029,9 +8461,15 @@
       <c r="C157" s="6" t="s">
         <v>222</v>
       </c>
+      <c r="D157" s="7">
+        <v>3</v>
+      </c>
       <c r="E157" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F157" s="7">
+        <v>1</v>
+      </c>
       <c r="G157" s="8">
         <v>1</v>
       </c>
@@ -8041,6 +8479,12 @@
       <c r="J157" s="8">
         <v>80</v>
       </c>
+      <c r="L157" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M157" s="7">
+        <v>1</v>
+      </c>
       <c r="N157" s="8">
         <v>5</v>
       </c>
@@ -8049,6 +8493,10 @@
       </c>
       <c r="P157" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7">
+        <v>1</v>
       </c>
       <c r="S157" s="8">
         <v>3</v>
@@ -8064,9 +8512,15 @@
       <c r="C158" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="D158" s="7">
+        <v>3</v>
+      </c>
       <c r="E158" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F158" s="7">
+        <v>1</v>
+      </c>
       <c r="G158" s="8">
         <v>1</v>
       </c>
@@ -8076,6 +8530,12 @@
       <c r="J158" s="8">
         <v>90</v>
       </c>
+      <c r="L158" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M158" s="7">
+        <v>1</v>
+      </c>
       <c r="N158" s="8">
         <v>5</v>
       </c>
@@ -8084,6 +8544,10 @@
       </c>
       <c r="P158" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7">
+        <v>1</v>
       </c>
       <c r="S158" s="8">
         <v>3</v>
@@ -8099,9 +8563,15 @@
       <c r="C159" s="6" t="s">
         <v>224</v>
       </c>
+      <c r="D159" s="7">
+        <v>3</v>
+      </c>
       <c r="E159" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F159" s="7">
+        <v>1</v>
+      </c>
       <c r="G159" s="8">
         <v>1</v>
       </c>
@@ -8111,6 +8581,12 @@
       <c r="J159" s="8">
         <v>100</v>
       </c>
+      <c r="L159" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M159" s="7">
+        <v>1</v>
+      </c>
       <c r="N159" s="8">
         <v>5</v>
       </c>
@@ -8119,6 +8595,10 @@
       </c>
       <c r="P159" s="8">
         <v>5000</v>
+      </c>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7">
+        <v>1</v>
       </c>
       <c r="S159" s="8">
         <v>3</v>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="226">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -617,90 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幸运任务1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩常规场场数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务1-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务2-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
   </si>
   <si>
@@ -708,52 +624,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幸运任务3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运任务3-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LuckyTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IsLuckyFinal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克初级场对局2场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>3场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克初级场对局4场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>5场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>6场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克初级场对局7场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>8场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克初级场对局9场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>10场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克中级场对局2场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>3场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克中级场对局4场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>5场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克中级场对局6场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>7场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克中级场对局8场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>9场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克中级场对局10场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克高级场对局2场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>3场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克高级场对局4场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>5场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克高级场对局6场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>7场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克高级场对局8场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>9场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>在德州扑克高级场对局10场</t>
   </si>
 </sst>
 </file>
@@ -821,7 +1177,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +1196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1180,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1262,10 +1619,10 @@
         <v>187</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1321,13 +1678,13 @@
         <v>183</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -7075,15 +7432,13 @@
       <c r="B130" s="8">
         <v>4001</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>192</v>
+      <c r="C130" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D130" s="7">
         <v>1</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E130" s="6"/>
       <c r="F130" s="7">
         <v>1</v>
       </c>
@@ -7126,15 +7481,13 @@
       <c r="B131" s="8">
         <v>4001</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>194</v>
+      <c r="C131" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D131" s="7">
         <v>1</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E131" s="6"/>
       <c r="F131" s="7">
         <v>1</v>
       </c>
@@ -7177,15 +7530,13 @@
       <c r="B132" s="8">
         <v>4001</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>195</v>
+      <c r="C132" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D132" s="7">
         <v>1</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E132" s="6"/>
       <c r="F132" s="7">
         <v>1</v>
       </c>
@@ -7228,15 +7579,13 @@
       <c r="B133" s="8">
         <v>4001</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>196</v>
+      <c r="C133" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="D133" s="7">
         <v>1</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E133" s="6"/>
       <c r="F133" s="7">
         <v>1</v>
       </c>
@@ -7279,15 +7628,13 @@
       <c r="B134" s="8">
         <v>4001</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>197</v>
+      <c r="C134" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D134" s="7">
         <v>1</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E134" s="6"/>
       <c r="F134" s="7">
         <v>1</v>
       </c>
@@ -7330,15 +7677,13 @@
       <c r="B135" s="8">
         <v>4001</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>198</v>
+      <c r="C135" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D135" s="7">
         <v>1</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E135" s="6"/>
       <c r="F135" s="7">
         <v>1</v>
       </c>
@@ -7381,15 +7726,13 @@
       <c r="B136" s="8">
         <v>4001</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>199</v>
+      <c r="C136" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="D136" s="7">
         <v>1</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="7">
         <v>1</v>
       </c>
@@ -7432,15 +7775,13 @@
       <c r="B137" s="8">
         <v>4001</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>200</v>
+      <c r="C137" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="D137" s="7">
         <v>1</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E137" s="6"/>
       <c r="F137" s="7">
         <v>1</v>
       </c>
@@ -7483,15 +7824,13 @@
       <c r="B138" s="8">
         <v>4001</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>201</v>
+      <c r="C138" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="D138" s="7">
         <v>1</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E138" s="6"/>
       <c r="F138" s="7">
         <v>1</v>
       </c>
@@ -7534,15 +7873,13 @@
       <c r="B139" s="8">
         <v>4001</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>202</v>
+      <c r="C139" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="D139" s="7">
         <v>1</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E139" s="6"/>
       <c r="F139" s="7">
         <v>1</v>
       </c>
@@ -7588,15 +7925,13 @@
       <c r="B140" s="8">
         <v>4101</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>203</v>
+      <c r="C140" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="D140" s="7">
         <v>2</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="7">
         <v>1</v>
       </c>
@@ -7639,15 +7974,13 @@
       <c r="B141" s="8">
         <v>4101</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>204</v>
+      <c r="C141" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D141" s="7">
         <v>2</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E141" s="6"/>
       <c r="F141" s="7">
         <v>1</v>
       </c>
@@ -7690,15 +8023,13 @@
       <c r="B142" s="8">
         <v>4101</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>205</v>
+      <c r="C142" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="D142" s="7">
         <v>2</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E142" s="6"/>
       <c r="F142" s="7">
         <v>1</v>
       </c>
@@ -7741,15 +8072,13 @@
       <c r="B143" s="8">
         <v>4101</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>206</v>
+      <c r="C143" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D143" s="7">
         <v>2</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E143" s="6"/>
       <c r="F143" s="7">
         <v>1</v>
       </c>
@@ -7792,15 +8121,13 @@
       <c r="B144" s="8">
         <v>4101</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>207</v>
+      <c r="C144" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="D144" s="7">
         <v>2</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E144" s="6"/>
       <c r="F144" s="7">
         <v>1</v>
       </c>
@@ -7843,15 +8170,13 @@
       <c r="B145" s="8">
         <v>4101</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>208</v>
+      <c r="C145" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D145" s="7">
         <v>2</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E145" s="6"/>
       <c r="F145" s="7">
         <v>1</v>
       </c>
@@ -7894,15 +8219,13 @@
       <c r="B146" s="8">
         <v>4101</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>209</v>
+      <c r="C146" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="D146" s="7">
         <v>2</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E146" s="6"/>
       <c r="F146" s="7">
         <v>1</v>
       </c>
@@ -7945,15 +8268,13 @@
       <c r="B147" s="8">
         <v>4101</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>210</v>
+      <c r="C147" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D147" s="7">
         <v>2</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E147" s="6"/>
       <c r="F147" s="7">
         <v>1</v>
       </c>
@@ -7996,15 +8317,13 @@
       <c r="B148" s="8">
         <v>4101</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>211</v>
+      <c r="C148" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D148" s="7">
         <v>2</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E148" s="6"/>
       <c r="F148" s="7">
         <v>1</v>
       </c>
@@ -8047,15 +8366,13 @@
       <c r="B149" s="8">
         <v>4101</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>212</v>
+      <c r="C149" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D149" s="7">
         <v>2</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E149" s="6"/>
       <c r="F149" s="7">
         <v>1</v>
       </c>
@@ -8101,15 +8418,13 @@
       <c r="B150" s="8">
         <v>4201</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>215</v>
+      <c r="C150" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="D150" s="7">
         <v>3</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E150" s="6"/>
       <c r="F150" s="7">
         <v>1</v>
       </c>
@@ -8152,15 +8467,13 @@
       <c r="B151" s="8">
         <v>4201</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>216</v>
+      <c r="C151" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D151" s="7">
         <v>3</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E151" s="6"/>
       <c r="F151" s="7">
         <v>1</v>
       </c>
@@ -8203,15 +8516,13 @@
       <c r="B152" s="8">
         <v>4201</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>217</v>
+      <c r="C152" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="D152" s="7">
         <v>3</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E152" s="6"/>
       <c r="F152" s="7">
         <v>1</v>
       </c>
@@ -8254,15 +8565,13 @@
       <c r="B153" s="8">
         <v>4201</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>218</v>
+      <c r="C153" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D153" s="7">
         <v>3</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E153" s="6"/>
       <c r="F153" s="7">
         <v>1</v>
       </c>
@@ -8305,15 +8614,13 @@
       <c r="B154" s="8">
         <v>4201</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>219</v>
+      <c r="C154" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="D154" s="7">
         <v>3</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E154" s="6"/>
       <c r="F154" s="7">
         <v>1</v>
       </c>
@@ -8356,15 +8663,13 @@
       <c r="B155" s="8">
         <v>4201</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>220</v>
+      <c r="C155" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D155" s="7">
         <v>3</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E155" s="6"/>
       <c r="F155" s="7">
         <v>1</v>
       </c>
@@ -8407,15 +8712,13 @@
       <c r="B156" s="8">
         <v>4201</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>221</v>
+      <c r="C156" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="D156" s="7">
         <v>3</v>
       </c>
-      <c r="E156" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E156" s="6"/>
       <c r="F156" s="7">
         <v>1</v>
       </c>
@@ -8458,15 +8761,13 @@
       <c r="B157" s="8">
         <v>4201</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>222</v>
+      <c r="C157" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D157" s="7">
         <v>3</v>
       </c>
-      <c r="E157" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E157" s="6"/>
       <c r="F157" s="7">
         <v>1</v>
       </c>
@@ -8509,15 +8810,13 @@
       <c r="B158" s="8">
         <v>4201</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>223</v>
+      <c r="C158" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="D158" s="7">
         <v>3</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E158" s="6"/>
       <c r="F158" s="7">
         <v>1</v>
       </c>
@@ -8560,15 +8859,13 @@
       <c r="B159" s="8">
         <v>4201</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>224</v>
+      <c r="C159" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="D159" s="7">
         <v>3</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="E159" s="6"/>
       <c r="F159" s="7">
         <v>1</v>
       </c>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="206">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -76,415 +76,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币达人-1</t>
-  </si>
-  <si>
     <t>拥有金币数</t>
   </si>
   <si>
-    <t>金币达人-2</t>
-  </si>
-  <si>
-    <t>金币达人-3</t>
-  </si>
-  <si>
-    <t>金币达人-4</t>
-  </si>
-  <si>
-    <t>金币达人-5</t>
-  </si>
-  <si>
-    <t>金币达人-6</t>
-  </si>
-  <si>
-    <t>好友达人-1</t>
-  </si>
-  <si>
     <t>拥有好友数</t>
   </si>
   <si>
-    <t>好友达人-2</t>
-  </si>
-  <si>
-    <t>好友达人-3</t>
-  </si>
-  <si>
-    <t>好友达人-4</t>
-  </si>
-  <si>
-    <t>好友达人-5</t>
-  </si>
-  <si>
-    <t>好友达人-6</t>
-  </si>
-  <si>
-    <t>等级达人-1</t>
-  </si>
-  <si>
     <t>游戏等级达到</t>
   </si>
   <si>
-    <t>等级达人-2</t>
-  </si>
-  <si>
-    <t>等级达人-3</t>
-  </si>
-  <si>
-    <t>等级达人-4</t>
-  </si>
-  <si>
-    <t>等级达人-5</t>
-  </si>
-  <si>
-    <t>等级达人-6</t>
-  </si>
-  <si>
-    <t>对子达人-1</t>
-  </si>
-  <si>
     <t>以对子胜出牌局数</t>
   </si>
   <si>
-    <t>对子达人-2</t>
-  </si>
-  <si>
-    <t>对子达人-3</t>
-  </si>
-  <si>
-    <t>对子达人-4</t>
-  </si>
-  <si>
-    <t>对子达人-5</t>
-  </si>
-  <si>
-    <t>对子达人-6</t>
-  </si>
-  <si>
-    <t>两对达人-1</t>
-  </si>
-  <si>
     <t>以两队胜出牌局数</t>
   </si>
   <si>
-    <t>两对达人-2</t>
-  </si>
-  <si>
-    <t>两对达人-3</t>
-  </si>
-  <si>
-    <t>两对达人-4</t>
-  </si>
-  <si>
-    <t>两对达人-5</t>
-  </si>
-  <si>
-    <t>两对达人-6</t>
-  </si>
-  <si>
-    <t>三条达人-1</t>
-  </si>
-  <si>
     <t>以三条胜出牌局数</t>
   </si>
   <si>
-    <t>三条达人-2</t>
-  </si>
-  <si>
-    <t>三条达人-3</t>
-  </si>
-  <si>
-    <t>三条达人-4</t>
-  </si>
-  <si>
-    <t>三条达人-5</t>
-  </si>
-  <si>
-    <t>三条达人-6</t>
-  </si>
-  <si>
-    <t>顺子达人-1</t>
-  </si>
-  <si>
     <t>以顺子胜出牌局数</t>
   </si>
   <si>
-    <t>顺子达人-2</t>
-  </si>
-  <si>
-    <t>顺子达人-3</t>
-  </si>
-  <si>
-    <t>顺子达人-4</t>
-  </si>
-  <si>
-    <t>顺子达人-5</t>
-  </si>
-  <si>
-    <t>顺子达人-6</t>
-  </si>
-  <si>
-    <t>同花达人-1</t>
-  </si>
-  <si>
     <t>以同花胜出牌局数</t>
   </si>
   <si>
-    <t>同花达人-2</t>
-  </si>
-  <si>
-    <t>同花达人-3</t>
-  </si>
-  <si>
-    <t>同花达人-4</t>
-  </si>
-  <si>
-    <t>同花达人-5</t>
-  </si>
-  <si>
-    <t>同花达人-6</t>
-  </si>
-  <si>
-    <t>葫芦达人-1</t>
-  </si>
-  <si>
     <t>以葫芦胜出牌局数</t>
   </si>
   <si>
-    <t>葫芦达人-2</t>
-  </si>
-  <si>
-    <t>葫芦达人-3</t>
-  </si>
-  <si>
-    <t>葫芦达人-4</t>
-  </si>
-  <si>
-    <t>葫芦达人-5</t>
-  </si>
-  <si>
-    <t>葫芦达人-6</t>
-  </si>
-  <si>
-    <t>四条达人-1</t>
-  </si>
-  <si>
     <t>以四条胜出牌局数</t>
   </si>
   <si>
-    <t>四条达人-2</t>
-  </si>
-  <si>
-    <t>四条达人-3</t>
-  </si>
-  <si>
-    <t>四条达人-4</t>
-  </si>
-  <si>
-    <t>四条达人-5</t>
-  </si>
-  <si>
-    <t>四条达人-6</t>
-  </si>
-  <si>
-    <t>同花顺达人-1</t>
-  </si>
-  <si>
     <t>以同花顺胜出牌局数</t>
   </si>
   <si>
-    <t>同花顺达人-2</t>
-  </si>
-  <si>
-    <t>同花顺达人-3</t>
-  </si>
-  <si>
-    <t>同花顺达人-4</t>
-  </si>
-  <si>
-    <t>同花顺达人-5</t>
-  </si>
-  <si>
-    <t>同花顺达人-6</t>
-  </si>
-  <si>
-    <t>皇家同花顺达人-1</t>
-  </si>
-  <si>
     <t>以皇家同花顺胜出牌局数</t>
-  </si>
-  <si>
-    <t>皇家同花顺达人-2</t>
-  </si>
-  <si>
-    <t>皇家同花顺达人-3</t>
-  </si>
-  <si>
-    <t>皇家同花顺达人-4</t>
-  </si>
-  <si>
-    <t>皇家同花顺达人-5</t>
-  </si>
-  <si>
-    <t>皇家同花顺达人-6</t>
-  </si>
-  <si>
-    <t>在德州扑克初级场对局5场</t>
-  </si>
-  <si>
-    <t>在德州扑克初级场对局15场</t>
-  </si>
-  <si>
-    <t>在德州扑克初级场对局30场</t>
-  </si>
-  <si>
-    <t>在德州扑克初级场对局50场</t>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局5场</t>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局15场</t>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局30场</t>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局50场</t>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局5场</t>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局15场</t>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局30场</t>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局50场</t>
-  </si>
-  <si>
-    <t>成功参与1场MTT锦标赛</t>
-  </si>
-  <si>
-    <t>成功参与3场MTT锦标赛</t>
-  </si>
-  <si>
-    <t>成功参与5场MTT锦标赛</t>
-  </si>
-  <si>
-    <t>成功参与10场MTT锦标赛</t>
-  </si>
-  <si>
-    <t>参与百人大战欢乐场10次</t>
-  </si>
-  <si>
-    <t>参与百人大战欢乐场30次</t>
-  </si>
-  <si>
-    <t>参与百人大战欢乐场50次</t>
-  </si>
-  <si>
-    <t>参与百人大战富豪场10次</t>
-  </si>
-  <si>
-    <t>参与百人大战富豪场30次</t>
-  </si>
-  <si>
-    <t>参与百人大战富豪场50次</t>
-  </si>
-  <si>
-    <t>在德州扑克内赢得10次胜利</t>
-  </si>
-  <si>
-    <t>在德州扑克内赢得20次胜利</t>
-  </si>
-  <si>
-    <t>在德州扑克内赢得50次胜利</t>
-  </si>
-  <si>
-    <t>在德州扑克内赢得100次胜利</t>
-  </si>
-  <si>
-    <t>在MTT锦标赛内赢得1次冠军</t>
-  </si>
-  <si>
-    <t>在MTT锦标赛内赢得3次冠军</t>
-  </si>
-  <si>
-    <t>在MTT锦标赛内赢得5次冠军</t>
-  </si>
-  <si>
-    <t>在MTT锦标赛内赢得8次冠军</t>
-  </si>
-  <si>
-    <t>在百人大战里赢取10次胜利</t>
-  </si>
-  <si>
-    <t>在百人大战里赢取30次胜利</t>
-  </si>
-  <si>
-    <t>在百人大战里赢取50次胜利</t>
-  </si>
-  <si>
-    <t>等级升到5级</t>
-  </si>
-  <si>
-    <t>等级升到10级</t>
-  </si>
-  <si>
-    <t>等级升到15级</t>
-  </si>
-  <si>
-    <t>等级升到20级</t>
-  </si>
-  <si>
-    <t>等级升到25级</t>
-  </si>
-  <si>
-    <t>等级升到30级</t>
-  </si>
-  <si>
-    <t>等级升到35级</t>
-  </si>
-  <si>
-    <t>等级升到40级</t>
-  </si>
-  <si>
-    <t>等级升到45级</t>
-  </si>
-  <si>
-    <t>等级升到50级</t>
-  </si>
-  <si>
-    <t>等级升到55级</t>
-  </si>
-  <si>
-    <t>等级升到60级</t>
-  </si>
-  <si>
-    <t>等级升到65级</t>
-  </si>
-  <si>
-    <t>等级升到70级</t>
-  </si>
-  <si>
-    <t>等级升到75级</t>
-  </si>
-  <si>
-    <t>等级升到80级</t>
-  </si>
-  <si>
-    <t>等级升到85级</t>
-  </si>
-  <si>
-    <t>等级升到90级</t>
-  </si>
-  <si>
-    <t>等级升到95级</t>
-  </si>
-  <si>
-    <t>等级升到100级</t>
   </si>
   <si>
     <t>achieve_1</t>
@@ -630,6 +255,2808 @@
   <si>
     <t>IsLuckyFinal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>好友达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>好友达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>好友达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>好友达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>好友达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>好友达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>对子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>对子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>对子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>对子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>对子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>对子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>两对达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>两对达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>两对达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>两对达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>两对达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>两对达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>三条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>三条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>三条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>三条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>三条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>三条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺子达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>葫芦达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>葫芦达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>葫芦达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>葫芦达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>葫芦达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>葫芦达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>四条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>四条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>四条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>四条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>四条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>四条达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇家同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇家同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇家同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇家同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇家同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>皇家同花顺达人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克初级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克中级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克高级场对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>成功参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>成功参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>成功参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>成功参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>参与百人大战欢乐场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>参与百人大战欢乐场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>参与百人大战欢乐场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>参与百人大战富豪场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>参与百人大战富豪场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>参与百人大战富豪场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在德州扑克内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次冠军</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次冠军</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次冠军</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>锦标赛内赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次冠军</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在百人大战里赢取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在百人大战里赢取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>在百人大战里赢取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>次胜利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>等级升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
   </si>
   <si>
     <r>
@@ -639,12 +3066,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克初级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -660,10 +3088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在德州扑克初级场对局2场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -671,14 +3095,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克初级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -687,11 +3112,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克初级场对局4场</t>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -701,14 +3124,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克初级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>5场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
     </r>
     <r>
       <rPr>
@@ -728,14 +3160,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克初级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>6场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -744,11 +3177,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克初级场对局7场</t>
+      <t>场</t>
+    </r>
   </si>
   <si>
     <r>
@@ -758,14 +3188,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克初级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>8场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
     </r>
     <r>
       <rPr>
@@ -778,9 +3217,6 @@
     </r>
   </si>
   <si>
-    <t>在德州扑克初级场对局9场</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -788,14 +3224,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克初级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>10场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -804,7 +3241,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
+      <t>场</t>
     </r>
   </si>
   <si>
@@ -815,14 +3252,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克中级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
     </r>
     <r>
       <rPr>
@@ -831,13 +3277,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>场</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局2场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -847,14 +3288,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克中级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -863,11 +3305,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局4场</t>
+      <t>场</t>
+    </r>
   </si>
   <si>
     <r>
@@ -877,14 +3316,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克中级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>5场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>场</t>
     </r>
     <r>
       <rPr>
@@ -897,9 +3345,6 @@
     </r>
   </si>
   <si>
-    <t>在德州扑克中级场对局6场</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -907,14 +3352,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在德州扑克中级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>7场</t>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -923,200 +3369,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局8场</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克中级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克中级场对局10场</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克高级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>场</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局2场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克高级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局4场</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克高级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>5场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局6场</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克高级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>7场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局8场</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克高级场对局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>在德州扑克高级场对局10场</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1143,6 +3404,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="+"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="+"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1177,7 +3447,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,7 +3466,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1538,14 +3813,14 @@
   <dimension ref="A1:T159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.69921875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="4"/>
     <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="4"/>
@@ -1563,76 +3838,76 @@
     <col min="21" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="7" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>171</v>
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1657,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
@@ -1666,70 +3941,70 @@
         <v>17</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="11"/>
       <c r="K3" s="4" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="7">
         <v>101</v>
       </c>
       <c r="B5" s="7">
         <v>101</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1746,7 +4021,7 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1757,19 +4032,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="7">
         <v>102</v>
       </c>
       <c r="B6" s="7">
         <v>101</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1786,7 +4061,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1797,19 +4072,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="7">
         <v>103</v>
       </c>
       <c r="B7" s="7">
         <v>101</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+      <c r="C7" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1826,7 +4101,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1837,19 +4112,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="7">
         <v>104</v>
       </c>
       <c r="B8" s="7">
         <v>101</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
+      <c r="C8" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1866,7 +4141,7 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1877,19 +4152,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="7">
         <v>105</v>
       </c>
       <c r="B9" s="7">
         <v>101</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -1906,7 +4181,7 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1917,19 +4192,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="7">
         <v>106</v>
       </c>
       <c r="B10" s="7">
         <v>101</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
+      <c r="C10" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -1946,7 +4221,7 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1957,19 +4232,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="7">
         <v>121</v>
       </c>
       <c r="B11" s="7">
         <v>121</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
+      <c r="C11" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -1986,7 +4261,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1997,19 +4272,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="7">
         <v>122</v>
       </c>
       <c r="B12" s="7">
         <v>121</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
+      <c r="C12" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -2026,7 +4301,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -2037,19 +4312,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="7">
         <v>123</v>
       </c>
       <c r="B13" s="7">
         <v>121</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
+      <c r="C13" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -2066,7 +4341,7 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -2077,19 +4352,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="7">
         <v>124</v>
       </c>
       <c r="B14" s="7">
         <v>121</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
+      <c r="C14" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -2106,7 +4381,7 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2117,19 +4392,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="7">
         <v>125</v>
       </c>
       <c r="B15" s="7">
         <v>121</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
+      <c r="C15" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -2146,7 +4421,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2157,19 +4432,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="7">
         <v>126</v>
       </c>
       <c r="B16" s="7">
         <v>121</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
+      <c r="C16" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -2186,7 +4461,7 @@
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -2197,19 +4472,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="7">
         <v>141</v>
       </c>
       <c r="B17" s="7">
         <v>141</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>33</v>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -2226,7 +4501,7 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -2237,19 +4512,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="7">
         <v>142</v>
       </c>
       <c r="B18" s="7">
         <v>141</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>35</v>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -2266,7 +4541,7 @@
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -2277,19 +4552,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="7">
         <v>143</v>
       </c>
       <c r="B19" s="7">
         <v>141</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
+      <c r="C19" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -2306,7 +4581,7 @@
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -2317,19 +4592,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="7">
         <v>144</v>
       </c>
       <c r="B20" s="7">
         <v>141</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
+      <c r="C20" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -2346,7 +4621,7 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -2357,19 +4632,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="7">
         <v>145</v>
       </c>
       <c r="B21" s="7">
         <v>141</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>38</v>
+      <c r="C21" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -2386,7 +4661,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -2397,19 +4672,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="7">
         <v>146</v>
       </c>
       <c r="B22" s="7">
         <v>141</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
+      <c r="C22" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -2426,7 +4701,7 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -2437,19 +4712,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="7">
         <v>161</v>
       </c>
       <c r="B23" s="7">
         <v>161</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>40</v>
+      <c r="C23" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -2468,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2479,19 +4754,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="7">
         <v>162</v>
       </c>
       <c r="B24" s="7">
         <v>161</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
+      <c r="C24" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -2510,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2521,19 +4796,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="7">
         <v>163</v>
       </c>
       <c r="B25" s="7">
         <v>161</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>43</v>
+      <c r="C25" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -2552,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2563,19 +4838,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="7">
         <v>164</v>
       </c>
       <c r="B26" s="7">
         <v>161</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>44</v>
+      <c r="C26" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7">
         <v>0</v>
@@ -2594,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2605,19 +4880,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="7">
         <v>165</v>
       </c>
       <c r="B27" s="7">
         <v>161</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>45</v>
+      <c r="C27" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
@@ -2636,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2647,19 +4922,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="7">
         <v>166</v>
       </c>
       <c r="B28" s="7">
         <v>161</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>46</v>
+      <c r="C28" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F28" s="7">
         <v>0</v>
@@ -2678,7 +4953,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2689,19 +4964,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="7">
         <v>181</v>
       </c>
       <c r="B29" s="7">
         <v>181</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>47</v>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7">
         <v>0</v>
@@ -2720,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2731,19 +5006,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="7">
         <v>182</v>
       </c>
       <c r="B30" s="7">
         <v>181</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>49</v>
+      <c r="C30" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -2762,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2773,19 +5048,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="7">
         <v>183</v>
       </c>
       <c r="B31" s="7">
         <v>181</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>50</v>
+      <c r="C31" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -2804,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2815,19 +5090,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="7">
         <v>184</v>
       </c>
       <c r="B32" s="7">
         <v>181</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>51</v>
+      <c r="C32" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F32" s="7">
         <v>0</v>
@@ -2846,7 +5121,7 @@
         <v>3</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2857,19 +5132,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="7">
         <v>185</v>
       </c>
       <c r="B33" s="7">
         <v>181</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>52</v>
+      <c r="C33" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F33" s="7">
         <v>0</v>
@@ -2888,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -2899,19 +5174,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="7">
         <v>186</v>
       </c>
       <c r="B34" s="7">
         <v>181</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>53</v>
+      <c r="C34" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
@@ -2930,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -2941,19 +5216,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="7">
         <v>201</v>
       </c>
       <c r="B35" s="7">
         <v>201</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>54</v>
+      <c r="C35" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
@@ -2972,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -2983,19 +5258,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="7">
         <v>202</v>
       </c>
       <c r="B36" s="7">
         <v>201</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>56</v>
+      <c r="C36" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
@@ -3014,7 +5289,7 @@
         <v>4</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -3025,19 +5300,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="7">
         <v>203</v>
       </c>
       <c r="B37" s="7">
         <v>201</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>57</v>
+      <c r="C37" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -3056,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -3067,19 +5342,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="7">
         <v>204</v>
       </c>
       <c r="B38" s="7">
         <v>201</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>58</v>
+      <c r="C38" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
@@ -3098,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -3109,19 +5384,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="7">
         <v>205</v>
       </c>
       <c r="B39" s="7">
         <v>201</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>59</v>
+      <c r="C39" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F39" s="7">
         <v>0</v>
@@ -3140,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -3151,19 +5426,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="7">
         <v>206</v>
       </c>
       <c r="B40" s="7">
         <v>201</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>60</v>
+      <c r="C40" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F40" s="7">
         <v>0</v>
@@ -3182,7 +5457,7 @@
         <v>4</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -3193,19 +5468,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="7">
         <v>221</v>
       </c>
       <c r="B41" s="7">
         <v>221</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>61</v>
+      <c r="C41" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -3224,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -3235,19 +5510,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="7">
         <v>222</v>
       </c>
       <c r="B42" s="7">
         <v>221</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>63</v>
+      <c r="C42" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7">
         <v>0</v>
@@ -3266,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -3277,19 +5552,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="7">
         <v>223</v>
       </c>
       <c r="B43" s="7">
         <v>221</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>64</v>
+      <c r="C43" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F43" s="7">
         <v>0</v>
@@ -3308,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3319,19 +5594,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="7">
         <v>224</v>
       </c>
       <c r="B44" s="7">
         <v>221</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>65</v>
+      <c r="C44" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F44" s="7">
         <v>0</v>
@@ -3350,7 +5625,7 @@
         <v>5</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -3361,19 +5636,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="7">
         <v>225</v>
       </c>
       <c r="B45" s="7">
         <v>221</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>66</v>
+      <c r="C45" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F45" s="7">
         <v>0</v>
@@ -3392,7 +5667,7 @@
         <v>5</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3403,19 +5678,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="7">
         <v>226</v>
       </c>
       <c r="B46" s="7">
         <v>221</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>67</v>
+      <c r="C46" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
@@ -3434,7 +5709,7 @@
         <v>5</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -3445,19 +5720,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="7">
         <v>241</v>
       </c>
       <c r="B47" s="7">
         <v>241</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>68</v>
+      <c r="C47" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
@@ -3476,7 +5751,7 @@
         <v>6</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -3487,19 +5762,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="7">
         <v>242</v>
       </c>
       <c r="B48" s="7">
         <v>241</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>70</v>
+      <c r="C48" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -3518,7 +5793,7 @@
         <v>6</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -3529,19 +5804,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="7">
         <v>243</v>
       </c>
       <c r="B49" s="7">
         <v>241</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>71</v>
+      <c r="C49" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -3560,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -3571,19 +5846,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="7">
         <v>244</v>
       </c>
       <c r="B50" s="7">
         <v>241</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>72</v>
+      <c r="C50" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
@@ -3602,7 +5877,7 @@
         <v>6</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -3613,19 +5888,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="7">
         <v>245</v>
       </c>
       <c r="B51" s="7">
         <v>241</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>73</v>
+      <c r="C51" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
@@ -3644,7 +5919,7 @@
         <v>6</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -3655,19 +5930,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="7">
         <v>246</v>
       </c>
       <c r="B52" s="7">
         <v>241</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>74</v>
+      <c r="C52" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
@@ -3686,7 +5961,7 @@
         <v>6</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -3697,19 +5972,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="7">
         <v>261</v>
       </c>
       <c r="B53" s="7">
         <v>261</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>75</v>
+      <c r="C53" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F53" s="7">
         <v>0</v>
@@ -3728,7 +6003,7 @@
         <v>7</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -3739,19 +6014,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="7">
         <v>262</v>
       </c>
       <c r="B54" s="7">
         <v>261</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>77</v>
+      <c r="C54" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
@@ -3770,7 +6045,7 @@
         <v>7</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -3781,19 +6056,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="7">
         <v>263</v>
       </c>
       <c r="B55" s="7">
         <v>261</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>78</v>
+      <c r="C55" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F55" s="7">
         <v>0</v>
@@ -3812,7 +6087,7 @@
         <v>7</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -3823,19 +6098,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="7">
         <v>264</v>
       </c>
       <c r="B56" s="7">
         <v>261</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>79</v>
+      <c r="C56" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F56" s="7">
         <v>0</v>
@@ -3854,7 +6129,7 @@
         <v>7</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -3865,19 +6140,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="7">
         <v>265</v>
       </c>
       <c r="B57" s="7">
         <v>261</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>80</v>
+      <c r="C57" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -3896,7 +6171,7 @@
         <v>7</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -3907,19 +6182,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="7">
         <v>266</v>
       </c>
       <c r="B58" s="7">
         <v>261</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>81</v>
+      <c r="C58" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F58" s="7">
         <v>0</v>
@@ -3938,7 +6213,7 @@
         <v>7</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -3949,19 +6224,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="7">
         <v>281</v>
       </c>
       <c r="B59" s="7">
         <v>281</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>82</v>
+      <c r="C59" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
@@ -3980,7 +6255,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -3991,19 +6266,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="7">
         <v>282</v>
       </c>
       <c r="B60" s="7">
         <v>281</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>84</v>
+      <c r="C60" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -4022,7 +6297,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -4033,19 +6308,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="7">
         <v>283</v>
       </c>
       <c r="B61" s="7">
         <v>281</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>85</v>
+      <c r="C61" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -4064,7 +6339,7 @@
         <v>8</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -4075,19 +6350,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="7">
         <v>284</v>
       </c>
       <c r="B62" s="7">
         <v>281</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>86</v>
+      <c r="C62" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
@@ -4106,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -4117,19 +6392,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="7">
         <v>285</v>
       </c>
       <c r="B63" s="7">
         <v>281</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>87</v>
+      <c r="C63" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -4148,7 +6423,7 @@
         <v>8</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -4159,19 +6434,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="7">
         <v>286</v>
       </c>
       <c r="B64" s="7">
         <v>281</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>88</v>
+      <c r="C64" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -4190,7 +6465,7 @@
         <v>8</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -4201,19 +6476,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="7">
         <v>301</v>
       </c>
       <c r="B65" s="7">
         <v>301</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>89</v>
+      <c r="C65" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
@@ -4232,7 +6507,7 @@
         <v>9</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -4243,19 +6518,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" s="7">
         <v>302</v>
       </c>
       <c r="B66" s="7">
         <v>301</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>91</v>
+      <c r="C66" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F66" s="7">
         <v>0</v>
@@ -4274,7 +6549,7 @@
         <v>9</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -4285,19 +6560,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" s="7">
         <v>303</v>
       </c>
       <c r="B67" s="7">
         <v>301</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>92</v>
+      <c r="C67" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F67" s="7">
         <v>0</v>
@@ -4316,7 +6591,7 @@
         <v>9</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -4327,19 +6602,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" s="7">
         <v>304</v>
       </c>
       <c r="B68" s="7">
         <v>301</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>93</v>
+      <c r="C68" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -4358,7 +6633,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -4369,19 +6644,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" s="7">
         <v>305</v>
       </c>
       <c r="B69" s="7">
         <v>301</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>94</v>
+      <c r="C69" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F69" s="7">
         <v>0</v>
@@ -4400,7 +6675,7 @@
         <v>9</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -4411,19 +6686,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="7">
         <v>306</v>
       </c>
       <c r="B70" s="7">
         <v>301</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>95</v>
+      <c r="C70" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -4442,7 +6717,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -4453,19 +6728,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" s="7">
         <v>321</v>
       </c>
       <c r="B71" s="7">
         <v>321</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>96</v>
+      <c r="C71" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -4484,7 +6759,7 @@
         <v>10</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -4495,19 +6770,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" s="7">
         <v>322</v>
       </c>
       <c r="B72" s="7">
         <v>321</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>98</v>
+      <c r="C72" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -4526,7 +6801,7 @@
         <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
@@ -4537,19 +6812,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" s="7">
         <v>323</v>
       </c>
       <c r="B73" s="7">
         <v>321</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>99</v>
+      <c r="C73" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -4568,7 +6843,7 @@
         <v>10</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
@@ -4579,19 +6854,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" s="7">
         <v>324</v>
       </c>
       <c r="B74" s="7">
         <v>321</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>100</v>
+      <c r="C74" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -4610,7 +6885,7 @@
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -4621,19 +6896,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" s="7">
         <v>325</v>
       </c>
       <c r="B75" s="7">
         <v>321</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>101</v>
+      <c r="C75" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -4652,7 +6927,7 @@
         <v>10</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
@@ -4663,19 +6938,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" s="7">
         <v>326</v>
       </c>
       <c r="B76" s="7">
         <v>321</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>102</v>
+      <c r="C76" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -4694,7 +6969,7 @@
         <v>10</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
@@ -4705,15 +6980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" s="7">
         <v>1001</v>
       </c>
       <c r="B77" s="7">
         <v>1001</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>103</v>
+      <c r="C77" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
@@ -4738,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -4759,15 +7034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" s="7">
         <v>1002</v>
       </c>
       <c r="B78" s="7">
         <v>1001</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>104</v>
+      <c r="C78" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="D78" s="7">
         <v>1</v>
@@ -4792,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M78" s="7">
         <v>1</v>
@@ -4813,15 +7088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" s="7">
         <v>1003</v>
       </c>
       <c r="B79" s="7">
         <v>1001</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>105</v>
+      <c r="C79" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -4846,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M79" s="7">
         <v>1</v>
@@ -4867,15 +7142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="7">
         <v>1004</v>
       </c>
       <c r="B80" s="7">
         <v>1001</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>106</v>
+      <c r="C80" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
@@ -4900,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M80" s="7">
         <v>1</v>
@@ -4921,15 +7196,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" s="7">
         <v>1021</v>
       </c>
       <c r="B81" s="7">
         <v>1021</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>107</v>
+      <c r="C81" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -4954,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -4975,15 +7250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="7">
         <v>1022</v>
       </c>
       <c r="B82" s="7">
         <v>1021</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>108</v>
+      <c r="C82" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -5008,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -5029,15 +7304,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="7">
         <v>1023</v>
       </c>
       <c r="B83" s="7">
         <v>1021</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>109</v>
+      <c r="C83" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D83" s="7">
         <v>2</v>
@@ -5062,7 +7337,7 @@
         <v>2</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -5083,15 +7358,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" s="7">
         <v>1024</v>
       </c>
       <c r="B84" s="7">
         <v>1021</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>110</v>
+      <c r="C84" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D84" s="7">
         <v>2</v>
@@ -5116,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -5137,15 +7412,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="7">
         <v>1041</v>
       </c>
       <c r="B85" s="7">
         <v>1041</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>111</v>
+      <c r="C85" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D85" s="7">
         <v>3</v>
@@ -5170,7 +7445,7 @@
         <v>3</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5191,15 +7466,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="7">
         <v>1042</v>
       </c>
       <c r="B86" s="7">
         <v>1041</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>112</v>
+      <c r="C86" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="D86" s="7">
         <v>3</v>
@@ -5224,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M86" s="7">
         <v>1</v>
@@ -5245,15 +7520,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" s="7">
         <v>1043</v>
       </c>
       <c r="B87" s="7">
         <v>1041</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>113</v>
+      <c r="C87" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D87" s="7">
         <v>3</v>
@@ -5278,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M87" s="7">
         <v>1</v>
@@ -5299,15 +7574,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="7">
         <v>1044</v>
       </c>
       <c r="B88" s="7">
         <v>1041</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>114</v>
+      <c r="C88" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D88" s="7">
         <v>3</v>
@@ -5332,7 +7607,7 @@
         <v>3</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M88" s="7">
         <v>1</v>
@@ -5353,15 +7628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="7">
         <v>1061</v>
       </c>
       <c r="B89" s="7">
         <v>1061</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>115</v>
+      <c r="C89" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D89" s="7">
         <v>21</v>
@@ -5384,7 +7659,7 @@
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M89" s="7">
         <v>1</v>
@@ -5401,15 +7676,15 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="7">
         <v>1062</v>
       </c>
       <c r="B90" s="7">
         <v>1061</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>116</v>
+      <c r="C90" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D90" s="7">
         <v>21</v>
@@ -5432,7 +7707,7 @@
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M90" s="7">
         <v>1</v>
@@ -5449,15 +7724,15 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" s="7">
         <v>1063</v>
       </c>
       <c r="B91" s="7">
         <v>1061</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>117</v>
+      <c r="C91" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D91" s="7">
         <v>21</v>
@@ -5480,7 +7755,7 @@
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M91" s="7">
         <v>1</v>
@@ -5497,15 +7772,15 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" s="7">
         <v>1064</v>
       </c>
       <c r="B92" s="7">
         <v>1061</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>118</v>
+      <c r="C92" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D92" s="7">
         <v>21</v>
@@ -5528,7 +7803,7 @@
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M92" s="7">
         <v>1</v>
@@ -5545,15 +7820,15 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" s="7">
         <v>1081</v>
       </c>
       <c r="B93" s="7">
         <v>1081</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>119</v>
+      <c r="C93" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D93" s="7">
         <v>40</v>
@@ -5578,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M93" s="7">
         <v>1</v>
@@ -5599,15 +7874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" s="7">
         <v>1082</v>
       </c>
       <c r="B94" s="7">
         <v>1081</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>120</v>
+      <c r="C94" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D94" s="7">
         <v>40</v>
@@ -5632,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M94" s="7">
         <v>1</v>
@@ -5653,15 +7928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="7">
         <v>1083</v>
       </c>
       <c r="B95" s="7">
         <v>1081</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>121</v>
+      <c r="C95" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D95" s="7">
         <v>40</v>
@@ -5686,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M95" s="7">
         <v>1</v>
@@ -5707,15 +7982,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" s="7">
         <v>1101</v>
       </c>
       <c r="B96" s="7">
         <v>1101</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>122</v>
+      <c r="C96" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D96" s="7">
         <v>40</v>
@@ -5740,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M96" s="7">
         <v>1</v>
@@ -5761,15 +8036,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="7">
         <v>1102</v>
       </c>
       <c r="B97" s="7">
         <v>1101</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>123</v>
+      <c r="C97" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="D97" s="7">
         <v>40</v>
@@ -5794,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M97" s="7">
         <v>1</v>
@@ -5815,15 +8090,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="7">
         <v>1103</v>
       </c>
       <c r="B98" s="7">
         <v>1101</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>124</v>
+      <c r="C98" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D98" s="7">
         <v>40</v>
@@ -5848,7 +8123,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M98" s="7">
         <v>1</v>
@@ -5869,15 +8144,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="7">
         <v>2001</v>
       </c>
       <c r="B99" s="7">
         <v>2001</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>125</v>
+      <c r="C99" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D99" s="7">
         <v>2</v>
@@ -5900,7 +8175,7 @@
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M99" s="7">
         <v>1</v>
@@ -5921,15 +8196,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="7">
         <v>2002</v>
       </c>
       <c r="B100" s="7">
         <v>2001</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>126</v>
+      <c r="C100" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D100" s="7">
         <v>2</v>
@@ -5952,7 +8227,7 @@
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M100" s="7">
         <v>1</v>
@@ -5973,15 +8248,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="7">
         <v>2003</v>
       </c>
       <c r="B101" s="7">
         <v>2001</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>127</v>
+      <c r="C101" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D101" s="7">
         <v>2</v>
@@ -6004,7 +8279,7 @@
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M101" s="7">
         <v>1</v>
@@ -6025,15 +8300,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="7">
         <v>2004</v>
       </c>
       <c r="B102" s="7">
         <v>2001</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>128</v>
+      <c r="C102" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="D102" s="7">
         <v>2</v>
@@ -6056,7 +8331,7 @@
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M102" s="7">
         <v>1</v>
@@ -6077,15 +8352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" s="7">
         <v>2021</v>
       </c>
       <c r="B103" s="7">
         <v>2021</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>129</v>
+      <c r="C103" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D103" s="7">
         <v>21</v>
@@ -6108,7 +8383,7 @@
       </c>
       <c r="K103" s="7"/>
       <c r="L103" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M103" s="7">
         <v>1</v>
@@ -6125,15 +8400,15 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" s="7">
         <v>2022</v>
       </c>
       <c r="B104" s="7">
         <v>2021</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>130</v>
+      <c r="C104" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D104" s="7">
         <v>21</v>
@@ -6156,7 +8431,7 @@
       </c>
       <c r="K104" s="7"/>
       <c r="L104" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M104" s="7">
         <v>1</v>
@@ -6173,15 +8448,15 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" s="7">
         <v>2023</v>
       </c>
       <c r="B105" s="7">
         <v>2021</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>131</v>
+      <c r="C105" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D105" s="7">
         <v>21</v>
@@ -6204,7 +8479,7 @@
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M105" s="7">
         <v>1</v>
@@ -6221,15 +8496,15 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" s="7">
         <v>2024</v>
       </c>
       <c r="B106" s="7">
         <v>2021</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>132</v>
+      <c r="C106" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D106" s="7">
         <v>21</v>
@@ -6252,7 +8527,7 @@
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M106" s="7">
         <v>1</v>
@@ -6269,15 +8544,15 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" s="7">
         <v>2041</v>
       </c>
       <c r="B107" s="7">
         <v>2041</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>133</v>
+      <c r="C107" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D107" s="7">
         <v>40</v>
@@ -6300,7 +8575,7 @@
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M107" s="7">
         <v>1</v>
@@ -6321,15 +8596,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" s="7">
         <v>2042</v>
       </c>
       <c r="B108" s="7">
         <v>2041</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>134</v>
+      <c r="C108" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D108" s="7">
         <v>40</v>
@@ -6352,7 +8627,7 @@
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M108" s="7">
         <v>1</v>
@@ -6373,15 +8648,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" s="7">
         <v>2043</v>
       </c>
       <c r="B109" s="7">
         <v>2041</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>135</v>
+      <c r="C109" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D109" s="7">
         <v>40</v>
@@ -6404,7 +8679,7 @@
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="M109" s="7">
         <v>1</v>
@@ -6425,15 +8700,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" s="7">
         <v>3001</v>
       </c>
       <c r="B110" s="7">
         <v>3001</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>136</v>
+      <c r="C110" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D110" s="7">
         <v>2</v>
@@ -6456,7 +8731,7 @@
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M110" s="7">
         <v>1</v>
@@ -6475,15 +8750,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" s="7">
         <v>3002</v>
       </c>
       <c r="B111" s="7">
         <v>3001</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>137</v>
+      <c r="C111" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D111" s="7">
         <v>2</v>
@@ -6506,7 +8781,7 @@
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M111" s="7">
         <v>1</v>
@@ -6525,15 +8800,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" s="7">
         <v>3003</v>
       </c>
       <c r="B112" s="7">
         <v>3001</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>138</v>
+      <c r="C112" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D112" s="7">
         <v>2</v>
@@ -6556,7 +8831,7 @@
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M112" s="7">
         <v>1</v>
@@ -6575,15 +8850,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="7">
         <v>3004</v>
       </c>
       <c r="B113" s="7">
         <v>3001</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>139</v>
+      <c r="C113" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D113" s="7">
         <v>2</v>
@@ -6606,7 +8881,7 @@
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M113" s="7">
         <v>1</v>
@@ -6625,15 +8900,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="7">
         <v>3005</v>
       </c>
       <c r="B114" s="7">
         <v>3001</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>140</v>
+      <c r="C114" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D114" s="7">
         <v>2</v>
@@ -6656,7 +8931,7 @@
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M114" s="7">
         <v>1</v>
@@ -6675,15 +8950,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="7">
         <v>3006</v>
       </c>
       <c r="B115" s="7">
         <v>3001</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>141</v>
+      <c r="C115" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D115" s="7">
         <v>2</v>
@@ -6706,7 +8981,7 @@
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M115" s="7">
         <v>1</v>
@@ -6725,15 +9000,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="7">
         <v>3007</v>
       </c>
       <c r="B116" s="7">
         <v>3001</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>142</v>
+      <c r="C116" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D116" s="7">
         <v>2</v>
@@ -6756,7 +9031,7 @@
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M116" s="7">
         <v>1</v>
@@ -6775,15 +9050,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="7">
         <v>3008</v>
       </c>
       <c r="B117" s="7">
         <v>3001</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>143</v>
+      <c r="C117" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D117" s="7">
         <v>2</v>
@@ -6806,7 +9081,7 @@
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M117" s="7">
         <v>1</v>
@@ -6825,15 +9100,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="7">
         <v>3009</v>
       </c>
       <c r="B118" s="7">
         <v>3001</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>144</v>
+      <c r="C118" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D118" s="7">
         <v>2</v>
@@ -6856,7 +9131,7 @@
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M118" s="7">
         <v>1</v>
@@ -6875,15 +9150,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="7">
         <v>3010</v>
       </c>
       <c r="B119" s="7">
         <v>3001</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>145</v>
+      <c r="C119" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D119" s="7">
         <v>2</v>
@@ -6906,7 +9181,7 @@
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M119" s="7">
         <v>1</v>
@@ -6925,15 +9200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="7">
         <v>3011</v>
       </c>
       <c r="B120" s="7">
         <v>3001</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>146</v>
+      <c r="C120" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D120" s="7">
         <v>2</v>
@@ -6956,7 +9231,7 @@
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M120" s="7">
         <v>1</v>
@@ -6975,15 +9250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="7">
         <v>3012</v>
       </c>
       <c r="B121" s="7">
         <v>3001</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>147</v>
+      <c r="C121" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="D121" s="7">
         <v>2</v>
@@ -7006,7 +9281,7 @@
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M121" s="7">
         <v>1</v>
@@ -7025,15 +9300,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="7">
         <v>3013</v>
       </c>
       <c r="B122" s="7">
         <v>3001</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>148</v>
+      <c r="C122" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D122" s="7">
         <v>2</v>
@@ -7056,7 +9331,7 @@
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M122" s="7">
         <v>1</v>
@@ -7075,15 +9350,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="7">
         <v>3014</v>
       </c>
       <c r="B123" s="7">
         <v>3001</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>149</v>
+      <c r="C123" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D123" s="7">
         <v>2</v>
@@ -7106,7 +9381,7 @@
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M123" s="7">
         <v>1</v>
@@ -7125,15 +9400,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="7">
         <v>3015</v>
       </c>
       <c r="B124" s="7">
         <v>3001</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>150</v>
+      <c r="C124" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="D124" s="7">
         <v>2</v>
@@ -7156,7 +9431,7 @@
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M124" s="7">
         <v>1</v>
@@ -7175,15 +9450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="7">
         <v>3016</v>
       </c>
       <c r="B125" s="7">
         <v>3001</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>151</v>
+      <c r="C125" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D125" s="7">
         <v>2</v>
@@ -7206,7 +9481,7 @@
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M125" s="7">
         <v>1</v>
@@ -7225,15 +9500,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="7">
         <v>3017</v>
       </c>
       <c r="B126" s="7">
         <v>3001</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>152</v>
+      <c r="C126" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D126" s="7">
         <v>2</v>
@@ -7256,7 +9531,7 @@
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M126" s="7">
         <v>1</v>
@@ -7275,15 +9550,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="7">
         <v>3018</v>
       </c>
       <c r="B127" s="7">
         <v>3001</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>153</v>
+      <c r="C127" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="D127" s="7">
         <v>2</v>
@@ -7306,7 +9581,7 @@
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M127" s="7">
         <v>1</v>
@@ -7325,15 +9600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="7">
         <v>3019</v>
       </c>
       <c r="B128" s="7">
         <v>3001</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>154</v>
+      <c r="C128" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D128" s="7">
         <v>2</v>
@@ -7356,7 +9631,7 @@
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M128" s="7">
         <v>1</v>
@@ -7375,15 +9650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="7">
         <v>3020</v>
       </c>
       <c r="B129" s="7">
         <v>3001</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>155</v>
+      <c r="C129" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="D129" s="7">
         <v>2</v>
@@ -7406,7 +9681,7 @@
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M129" s="7">
         <v>1</v>
@@ -7425,14 +9700,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="8">
         <v>4001</v>
       </c>
       <c r="B130" s="8">
         <v>4001</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="12" t="s">
         <v>196</v>
       </c>
       <c r="D130" s="7">
@@ -7452,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M130" s="7">
         <v>1</v>
@@ -7474,14 +9749,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="8">
         <v>4002</v>
       </c>
       <c r="B131" s="8">
         <v>4001</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="12" t="s">
         <v>197</v>
       </c>
       <c r="D131" s="7">
@@ -7501,7 +9776,7 @@
         <v>2</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M131" s="7">
         <v>1</v>
@@ -7523,14 +9798,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="8">
         <v>4003</v>
       </c>
       <c r="B132" s="8">
         <v>4001</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="12" t="s">
         <v>198</v>
       </c>
       <c r="D132" s="7">
@@ -7550,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M132" s="7">
         <v>1</v>
@@ -7572,14 +9847,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="8">
         <v>4004</v>
       </c>
       <c r="B133" s="8">
         <v>4001</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="12" t="s">
         <v>199</v>
       </c>
       <c r="D133" s="7">
@@ -7599,7 +9874,7 @@
         <v>4</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M133" s="7">
         <v>1</v>
@@ -7621,14 +9896,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="8">
         <v>4005</v>
       </c>
       <c r="B134" s="8">
         <v>4001</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="12" t="s">
         <v>200</v>
       </c>
       <c r="D134" s="7">
@@ -7648,7 +9923,7 @@
         <v>5</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M134" s="7">
         <v>1</v>
@@ -7670,14 +9945,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="8">
         <v>4006</v>
       </c>
       <c r="B135" s="8">
         <v>4001</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D135" s="7">
@@ -7697,7 +9972,7 @@
         <v>6</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M135" s="7">
         <v>1</v>
@@ -7719,14 +9994,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="8">
         <v>4007</v>
       </c>
       <c r="B136" s="8">
         <v>4001</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="12" t="s">
         <v>202</v>
       </c>
       <c r="D136" s="7">
@@ -7746,7 +10021,7 @@
         <v>7</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M136" s="7">
         <v>1</v>
@@ -7768,14 +10043,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="8">
         <v>4008</v>
       </c>
       <c r="B137" s="8">
         <v>4001</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="7">
@@ -7795,7 +10070,7 @@
         <v>8</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M137" s="7">
         <v>1</v>
@@ -7817,14 +10092,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="8">
         <v>4009</v>
       </c>
       <c r="B138" s="8">
         <v>4001</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D138" s="7">
@@ -7844,7 +10119,7 @@
         <v>9</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M138" s="7">
         <v>1</v>
@@ -7866,14 +10141,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="8">
         <v>4010</v>
       </c>
       <c r="B139" s="8">
         <v>4001</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="12" t="s">
         <v>205</v>
       </c>
       <c r="D139" s="7">
@@ -7893,7 +10168,7 @@
         <v>10</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M139" s="7">
         <v>1</v>
@@ -7918,15 +10193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="8">
         <v>4101</v>
       </c>
       <c r="B140" s="8">
         <v>4101</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>206</v>
+      <c r="C140" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D140" s="7">
         <v>2</v>
@@ -7945,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M140" s="7">
         <v>1</v>
@@ -7967,15 +10242,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="8">
         <v>4102</v>
       </c>
       <c r="B141" s="8">
         <v>4101</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>207</v>
+      <c r="C141" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="D141" s="7">
         <v>2</v>
@@ -7994,7 +10269,7 @@
         <v>10</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M141" s="7">
         <v>1</v>
@@ -8016,15 +10291,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="8">
         <v>4103</v>
       </c>
       <c r="B142" s="8">
         <v>4101</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>208</v>
+      <c r="C142" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="D142" s="7">
         <v>2</v>
@@ -8043,7 +10318,7 @@
         <v>15</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M142" s="7">
         <v>1</v>
@@ -8065,15 +10340,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="8">
         <v>4104</v>
       </c>
       <c r="B143" s="8">
         <v>4101</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>209</v>
+      <c r="C143" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D143" s="7">
         <v>2</v>
@@ -8092,7 +10367,7 @@
         <v>20</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M143" s="7">
         <v>1</v>
@@ -8114,15 +10389,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="8">
         <v>4105</v>
       </c>
       <c r="B144" s="8">
         <v>4101</v>
       </c>
-      <c r="C144" s="9" t="s">
-        <v>210</v>
+      <c r="C144" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="D144" s="7">
         <v>2</v>
@@ -8141,7 +10416,7 @@
         <v>25</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M144" s="7">
         <v>1</v>
@@ -8163,15 +10438,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="8">
         <v>4106</v>
       </c>
       <c r="B145" s="8">
         <v>4101</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>211</v>
+      <c r="C145" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="D145" s="7">
         <v>2</v>
@@ -8190,7 +10465,7 @@
         <v>30</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M145" s="7">
         <v>1</v>
@@ -8212,15 +10487,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" s="8">
         <v>4107</v>
       </c>
       <c r="B146" s="8">
         <v>4101</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>212</v>
+      <c r="C146" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="D146" s="7">
         <v>2</v>
@@ -8239,7 +10514,7 @@
         <v>35</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M146" s="7">
         <v>1</v>
@@ -8261,15 +10536,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" s="8">
         <v>4108</v>
       </c>
       <c r="B147" s="8">
         <v>4101</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>213</v>
+      <c r="C147" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="D147" s="7">
         <v>2</v>
@@ -8288,7 +10563,7 @@
         <v>40</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M147" s="7">
         <v>1</v>
@@ -8310,15 +10585,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" s="8">
         <v>4109</v>
       </c>
       <c r="B148" s="8">
         <v>4101</v>
       </c>
-      <c r="C148" s="9" t="s">
-        <v>214</v>
+      <c r="C148" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D148" s="7">
         <v>2</v>
@@ -8337,7 +10612,7 @@
         <v>45</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M148" s="7">
         <v>1</v>
@@ -8359,15 +10634,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" s="8">
         <v>4110</v>
       </c>
       <c r="B149" s="8">
         <v>4101</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>215</v>
+      <c r="C149" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="D149" s="7">
         <v>2</v>
@@ -8386,7 +10661,7 @@
         <v>50</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M149" s="7">
         <v>1</v>
@@ -8411,15 +10686,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" s="8">
         <v>4201</v>
       </c>
       <c r="B150" s="8">
         <v>4201</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>216</v>
+      <c r="C150" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D150" s="7">
         <v>3</v>
@@ -8438,7 +10713,7 @@
         <v>10</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M150" s="7">
         <v>1</v>
@@ -8460,15 +10735,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" s="8">
         <v>4202</v>
       </c>
       <c r="B151" s="8">
         <v>4201</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>217</v>
+      <c r="C151" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="D151" s="7">
         <v>3</v>
@@ -8487,7 +10762,7 @@
         <v>20</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M151" s="7">
         <v>1</v>
@@ -8509,15 +10784,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" s="8">
         <v>4203</v>
       </c>
       <c r="B152" s="8">
         <v>4201</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>218</v>
+      <c r="C152" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="D152" s="7">
         <v>3</v>
@@ -8536,7 +10811,7 @@
         <v>30</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M152" s="7">
         <v>1</v>
@@ -8558,15 +10833,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" s="8">
         <v>4204</v>
       </c>
       <c r="B153" s="8">
         <v>4201</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>219</v>
+      <c r="C153" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D153" s="7">
         <v>3</v>
@@ -8585,7 +10860,7 @@
         <v>40</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M153" s="7">
         <v>1</v>
@@ -8607,15 +10882,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" s="8">
         <v>4205</v>
       </c>
       <c r="B154" s="8">
         <v>4201</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>220</v>
+      <c r="C154" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="D154" s="7">
         <v>3</v>
@@ -8634,7 +10909,7 @@
         <v>50</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M154" s="7">
         <v>1</v>
@@ -8656,15 +10931,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" s="8">
         <v>4206</v>
       </c>
       <c r="B155" s="8">
         <v>4201</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>221</v>
+      <c r="C155" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="D155" s="7">
         <v>3</v>
@@ -8683,7 +10958,7 @@
         <v>60</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M155" s="7">
         <v>1</v>
@@ -8705,15 +10980,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="8">
         <v>4207</v>
       </c>
       <c r="B156" s="8">
         <v>4201</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>222</v>
+      <c r="C156" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="D156" s="7">
         <v>3</v>
@@ -8732,7 +11007,7 @@
         <v>70</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M156" s="7">
         <v>1</v>
@@ -8754,15 +11029,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" s="8">
         <v>4208</v>
       </c>
       <c r="B157" s="8">
         <v>4201</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>223</v>
+      <c r="C157" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="D157" s="7">
         <v>3</v>
@@ -8781,7 +11056,7 @@
         <v>80</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M157" s="7">
         <v>1</v>
@@ -8803,15 +11078,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" s="8">
         <v>4209</v>
       </c>
       <c r="B158" s="8">
         <v>4201</v>
       </c>
-      <c r="C158" s="9" t="s">
-        <v>224</v>
+      <c r="C158" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D158" s="7">
         <v>3</v>
@@ -8830,7 +11105,7 @@
         <v>90</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M158" s="7">
         <v>1</v>
@@ -8852,15 +11127,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" s="8">
         <v>4210</v>
       </c>
       <c r="B159" s="8">
         <v>4201</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>225</v>
+      <c r="C159" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="D159" s="7">
         <v>3</v>
@@ -8879,7 +11154,7 @@
         <v>100</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M159" s="7">
         <v>1</v>
@@ -8923,19 +11198,19 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="2" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -8961,7 +11236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>

--- a/docs/excel/TAchieve.xlsx
+++ b/docs/excel/TAchieve.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="226">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -3371,6 +3371,336 @@
       </rPr>
       <t>场</t>
     </r>
+  </si>
+  <si>
+    <t>在德州扑克对局5场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局10场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局15场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局20场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局30场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局25场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局35场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局40场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局45场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在德州扑克对局50场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="+"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3447,7 +3777,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3472,6 +3802,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3812,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10200,8 +10531,8 @@
       <c r="B140" s="8">
         <v>4101</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>196</v>
+      <c r="C140" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="D140" s="7">
         <v>2</v>
@@ -10249,8 +10580,8 @@
       <c r="B141" s="8">
         <v>4101</v>
       </c>
-      <c r="C141" s="12" t="s">
-        <v>197</v>
+      <c r="C141" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="D141" s="7">
         <v>2</v>
@@ -10298,8 +10629,8 @@
       <c r="B142" s="8">
         <v>4101</v>
       </c>
-      <c r="C142" s="12" t="s">
-        <v>198</v>
+      <c r="C142" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="D142" s="7">
         <v>2</v>
@@ -10347,8 +10678,8 @@
       <c r="B143" s="8">
         <v>4101</v>
       </c>
-      <c r="C143" s="12" t="s">
-        <v>199</v>
+      <c r="C143" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="D143" s="7">
         <v>2</v>
@@ -10396,8 +10727,8 @@
       <c r="B144" s="8">
         <v>4101</v>
       </c>
-      <c r="C144" s="12" t="s">
-        <v>200</v>
+      <c r="C144" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="D144" s="7">
         <v>2</v>
@@ -10445,8 +10776,8 @@
       <c r="B145" s="8">
         <v>4101</v>
       </c>
-      <c r="C145" s="12" t="s">
-        <v>201</v>
+      <c r="C145" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="D145" s="7">
         <v>2</v>
@@ -10494,8 +10825,8 @@
       <c r="B146" s="8">
         <v>4101</v>
       </c>
-      <c r="C146" s="12" t="s">
-        <v>202</v>
+      <c r="C146" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="D146" s="7">
         <v>2</v>
@@ -10543,8 +10874,8 @@
       <c r="B147" s="8">
         <v>4101</v>
       </c>
-      <c r="C147" s="12" t="s">
-        <v>203</v>
+      <c r="C147" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="D147" s="7">
         <v>2</v>
@@ -10592,8 +10923,8 @@
       <c r="B148" s="8">
         <v>4101</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>204</v>
+      <c r="C148" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="D148" s="7">
         <v>2</v>
@@ -10641,8 +10972,8 @@
       <c r="B149" s="8">
         <v>4101</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>205</v>
+      <c r="C149" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="D149" s="7">
         <v>2</v>
@@ -10694,7 +11025,7 @@
         <v>4201</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D150" s="7">
         <v>3</v>
@@ -10743,7 +11074,7 @@
         <v>4201</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D151" s="7">
         <v>3</v>
@@ -10792,7 +11123,7 @@
         <v>4201</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D152" s="7">
         <v>3</v>
@@ -10841,7 +11172,7 @@
         <v>4201</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D153" s="7">
         <v>3</v>
@@ -10890,7 +11221,7 @@
         <v>4201</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D154" s="7">
         <v>3</v>
@@ -10939,7 +11270,7 @@
         <v>4201</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D155" s="7">
         <v>3</v>
@@ -10988,7 +11319,7 @@
         <v>4201</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="D156" s="7">
         <v>3</v>
@@ -11037,7 +11368,7 @@
         <v>4201</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D157" s="7">
         <v>3</v>
@@ -11086,7 +11417,7 @@
         <v>4201</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D158" s="7">
         <v>3</v>
@@ -11135,7 +11466,7 @@
         <v>4201</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D159" s="7">
         <v>3</v>
@@ -11265,7 +11596,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
